--- a/pocs_address_result.xlsx
+++ b/pocs_address_result.xlsx
@@ -1,54 +1,163 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36004642\PycharmProjects\batch_geocode\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416884AE-9456-4733-927D-042C0F57EDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>found_address</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>lon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> м.Ів-Франк,вул.Деповська,97 гот-рест."Станісл.двір</t>
+  </si>
+  <si>
+    <t>вулиця Деповська, 97, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> м.Новояворівськ С Бандери 38</t>
+  </si>
+  <si>
+    <t>вулиця Степана Бандери, 38, Новояворівськ, Львівська область, Україна, 81053</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> с.Лиман, пл.Леніна, магазин</t>
+  </si>
+  <si>
+    <t>Звпоріжжя ул.Гудыменко,5 м-н "Пятачок"</t>
+  </si>
+  <si>
+    <t>вулиця Героїв 93-ї бригади, 5, Запоріжжя, Запорізька область, Україна, 69000</t>
+  </si>
+  <si>
+    <t>Звпоріжжя ул.Грязнова,45 шатер "Чернигов"</t>
+  </si>
+  <si>
+    <t>вулиця Фортечна, 45, Запоріжжя, Запорізька область, Україна, 69000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> с.Есмань, вул.Миру, буд.4/2</t>
+  </si>
+  <si>
+    <t>Есмань, Сумська область, Україна, 41432</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> с.Вишневе, Першотравнева, будинок № 2</t>
+  </si>
+  <si>
+    <t>вулиця Першотравнева, Вишневе, Київська обл., Україна, 08132</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> с. Счастливое, пер. Надежды, 1 _ "КОЛО 1,5"</t>
+  </si>
+  <si>
+    <t>Щасливе, Київська обл., Україна</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> м.Київ, Дарницький р-н, вул.Декабристів, 2А(літ."Б")</t>
+  </si>
+  <si>
+    <t>вулиця Декабристів, 2а, Київ, Україна, 02000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> с.Мартусівка, вул.Бориспільська, буд.6</t>
+  </si>
+  <si>
+    <t>вулиця Бориспільська, 6, Мартусівка, Київська обл., Україна, 08343</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> М. КИЇВ, ВУЛ. ГАРМАТНА, БУД. 26/2 КОНЦЕРТНА ПЛОЩАДКА "VOLUME CLUB"</t>
+  </si>
+  <si>
+    <t>26/2, вулиця Гарматна, Київ, Україна, 02000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> М. КИЇВ, ВУЛ.САКСАГАНСЬКОГО, 57-А, КАФЕ "МУСАФІР"</t>
+  </si>
+  <si>
+    <t>вулиця Саксаганського, 57А, Київ, Україна, 01033</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Century Gothic"/>
-      <b val="1"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Century Gothic"/>
-      <strike val="0"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A6A6A6"/>
+        <fgColor rgb="FFA6A6A6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -73,104 +182,55 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal>
-        <color rgb="FF000000"/>
-      </diagonal>
-      <vertical>
-        <color rgb="FF000000"/>
-      </vertical>
-      <horizontal>
-        <color rgb="FF000000"/>
-      </horizontal>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFCCFF99"/>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -458,233 +518,234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="70" customWidth="1" min="4" max="4"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="69.140625" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" customWidth="1"/>
+    <col min="4" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>lat</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>lon</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1003703092</v>
       </c>
-      <c r="B2" s="3" t="n">
-        <v>48.9229278</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>24.7292929</v>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>вулиця Деповська, 97, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
+        <v>48.922927799999997</v>
+      </c>
+      <c r="E2" s="3">
+        <v>24.729292900000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1003824807</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>49.9307665</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>23.5749822</v>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>вулиця Степана Бандери, 38, Новояворівськ, Львівська область, Україна, 81053</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>49.930766499999997</v>
+      </c>
+      <c r="E3" s="3">
+        <v>23.574982200000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>1004004027</v>
       </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> с.Лиман, пл.Леніна, магазин</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1009315412</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>47.8205179</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>35.0461367</v>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>вулиця Героїв 93-ї бригади, 5, Запоріжжя, Запорізька область, Україна, 69000</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>47.820517899999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>35.046136699999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>1009317516</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>47.8211241</v>
-      </c>
-      <c r="C6" s="3" t="n">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>47.821124099999999</v>
+      </c>
+      <c r="E6" s="3">
         <v>35.1681612</v>
       </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>вулиця Фортечна, 45, Запоріжжя, Запорізька область, Україна, 69000</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>1010602783</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3">
         <v>51.7676911</v>
       </c>
-      <c r="C7" s="3" t="n">
-        <v>34.0583682</v>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>Есмань, Сумська область, Україна, 41432</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="E7" s="3">
+        <v>34.058368199999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>1011103625</v>
       </c>
-      <c r="B8" s="3" t="n">
-        <v>50.3822139</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>30.3792114</v>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>вулиця Першотравнева, Вишневе, Київська обл., Україна, 08132</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50.382213900000004</v>
+      </c>
+      <c r="E8" s="3">
+        <v>30.379211399999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>100020000015515</v>
       </c>
-      <c r="B9" s="3" t="n">
-        <v>50.3760418</v>
-      </c>
-      <c r="C9" s="3" t="n">
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50.376041800000003</v>
+      </c>
+      <c r="E9" s="3">
         <v>30.79903079999999</v>
       </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>Щасливе, Київська обл., Україна</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>100020000015560</v>
       </c>
-      <c r="B10" s="3" t="n">
-        <v>50.4077335</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>30.655935</v>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>вулиця Декабристів, 2а, Київ, Україна, 02000</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3">
+        <v>50.407733499999999</v>
+      </c>
+      <c r="E10" s="3">
+        <v>30.655934999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>100020000015828</v>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>50.3043925</v>
-      </c>
-      <c r="C11" s="3" t="n">
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3">
+        <v>50.304392499999999</v>
+      </c>
+      <c r="E11" s="3">
         <v>30.8667075</v>
       </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>вулиця Бориспільська, 6, Мартусівка, Київська обл., Україна, 08343</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>100030000052221</v>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>50.447304</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>30.4314826</v>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>26/2, вулиця Гарматна, Київ, Україна, 02000</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50.447304000000003</v>
+      </c>
+      <c r="E12" s="3">
+        <v>30.431482599999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>100030000052372</v>
       </c>
-      <c r="B13" s="3" t="n">
-        <v>50.4359705</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>30.5080398</v>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>вулиця Саксаганського, 57А, Київ, Україна, 01033</t>
-        </is>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="3">
+        <v>50.435970500000003</v>
+      </c>
+      <c r="E13" s="3">
+        <v>30.508039799999999</v>
       </c>
     </row>
   </sheetData>

--- a/pocs_address_result.xlsx
+++ b/pocs_address_result.xlsx
@@ -1,163 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36004642\PycharmProjects\batch_geocode\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416884AE-9456-4733-927D-042C0F57EDFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="found_address" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>found_address</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> м.Ів-Франк,вул.Деповська,97 гот-рест."Станісл.двір</t>
-  </si>
-  <si>
-    <t>вулиця Деповська, 97, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> м.Новояворівськ С Бандери 38</t>
-  </si>
-  <si>
-    <t>вулиця Степана Бандери, 38, Новояворівськ, Львівська область, Україна, 81053</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> с.Лиман, пл.Леніна, магазин</t>
-  </si>
-  <si>
-    <t>Звпоріжжя ул.Гудыменко,5 м-н "Пятачок"</t>
-  </si>
-  <si>
-    <t>вулиця Героїв 93-ї бригади, 5, Запоріжжя, Запорізька область, Україна, 69000</t>
-  </si>
-  <si>
-    <t>Звпоріжжя ул.Грязнова,45 шатер "Чернигов"</t>
-  </si>
-  <si>
-    <t>вулиця Фортечна, 45, Запоріжжя, Запорізька область, Україна, 69000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> с.Есмань, вул.Миру, буд.4/2</t>
-  </si>
-  <si>
-    <t>Есмань, Сумська область, Україна, 41432</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> с.Вишневе, Першотравнева, будинок № 2</t>
-  </si>
-  <si>
-    <t>вулиця Першотравнева, Вишневе, Київська обл., Україна, 08132</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> с. Счастливое, пер. Надежды, 1 _ "КОЛО 1,5"</t>
-  </si>
-  <si>
-    <t>Щасливе, Київська обл., Україна</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> м.Київ, Дарницький р-н, вул.Декабристів, 2А(літ."Б")</t>
-  </si>
-  <si>
-    <t>вулиця Декабристів, 2а, Київ, Україна, 02000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> с.Мартусівка, вул.Бориспільська, буд.6</t>
-  </si>
-  <si>
-    <t>вулиця Бориспільська, 6, Мартусівка, Київська обл., Україна, 08343</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> М. КИЇВ, ВУЛ. ГАРМАТНА, БУД. 26/2 КОНЦЕРТНА ПЛОЩАДКА "VOLUME CLUB"</t>
-  </si>
-  <si>
-    <t>26/2, вулиця Гарматна, Київ, Україна, 02000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> М. КИЇВ, ВУЛ.САКСАГАНСЬКОГО, 57-А, КАФЕ "МУСАФІР"</t>
-  </si>
-  <si>
-    <t>вулиця Саксаганського, 57А, Київ, Україна, 01033</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Century Gothic"/>
+      <b val="1"/>
+      <strike val="0"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
     </font>
     <font>
+      <name val="Century Gothic"/>
+      <strike val="0"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA6A6A6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9999"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="00A6A6A6"/>
       </patternFill>
     </fill>
   </fills>
@@ -182,55 +73,104 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
+      <vertical>
+        <color rgb="FF000000"/>
+      </vertical>
+      <horizontal>
+        <color rgb="FF000000"/>
+      </horizontal>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <mruColors>
-      <color rgb="FFFFFF99"/>
-      <color rgb="FFCCFF99"/>
-      <color rgb="FFFF9999"/>
-      <color rgb="FFCCFFCC"/>
-      <color rgb="FFFFFFCC"/>
-    </mruColors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -518,234 +458,295 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="69.140625" customWidth="1"/>
-    <col min="3" max="3" width="65.42578125" customWidth="1"/>
-    <col min="4" max="5" width="20" customWidth="1"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="67" customWidth="1" min="2" max="2"/>
+    <col width="70" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>found_address</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>lon</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>1003703092</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3">
-        <v>48.922927799999997</v>
-      </c>
-      <c r="E2" s="3">
-        <v>24.729292900000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> м.Ів-Франк,вул.Деповська,97 гот-рест."Станісл.двір</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Деповська, 97, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>48.9229278</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>24.7292929</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1003824807</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3">
-        <v>49.930766499999997</v>
-      </c>
-      <c r="E3" s="3">
-        <v>23.574982200000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> м.Новояворівськ С Бандери 38</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Степана Бандери, 38, Новояворівськ, Львівська область, Україна, 81053</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>49.9307665</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>23.5749822</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>1004004027</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> с.Лиман, пл.Леніна, магазин</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>1009315412</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3">
-        <v>47.820517899999999</v>
-      </c>
-      <c r="E5" s="3">
-        <v>35.046136699999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Звпоріжжя ул.Гудыменко,5 м-н "Пятачок"</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Героїв 93-ї бригади, 5, Запоріжжя, Запорізька область, Україна, 69000</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>47.8205179</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>35.0461367</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>1009317516</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3">
-        <v>47.821124099999999</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Звпоріжжя ул.Грязнова,45 шатер "Чернигов"</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Фортечна, 45, Запоріжжя, Запорізька область, Україна, 69000</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>47.8211241</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>35.1681612</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>1010602783</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> с.Есмань, вул.Миру, буд.4/2</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Есмань, Сумська область, Україна, 41432</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>51.7676911</v>
       </c>
-      <c r="E7" s="3">
-        <v>34.058368199999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="E7" s="3" t="n">
+        <v>34.0583682</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>1011103625</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3">
-        <v>50.382213900000004</v>
-      </c>
-      <c r="E8" s="3">
-        <v>30.379211399999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> с.Вишневе, Першотравнева, будинок № 2</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Першотравнева, Вишневе, Київська обл., Україна, 08132</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>50.3822139</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>30.3792114</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>100020000015515</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3">
-        <v>50.376041800000003</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> с. Счастливое, пер. Надежды, 1 _ "КОЛО 1,5"</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Щасливе, Київська обл., Україна</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>50.3760418</v>
+      </c>
+      <c r="E9" s="3" t="n">
         <v>30.79903079999999</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>100020000015560</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3">
-        <v>50.407733499999999</v>
-      </c>
-      <c r="E10" s="3">
-        <v>30.655934999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> м.Київ, Дарницький р-н, вул.Декабристів, 2А(літ."Б")</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Декабристів, 2а, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>50.4077335</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>30.655935</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>100020000015828</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="3">
-        <v>50.304392499999999</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> с.Мартусівка, вул.Бориспільська, буд.6</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Бориспільська, 6, Мартусівка, Київська обл., Україна, 08343</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>50.3043925</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>30.8667075</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>100030000052221</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3">
-        <v>50.447304000000003</v>
-      </c>
-      <c r="E12" s="3">
-        <v>30.431482599999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> М. КИЇВ, ВУЛ. ГАРМАТНА, БУД. 26/2 КОНЦЕРТНА ПЛОЩАДКА "VOLUME CLUB"</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>26/2, вулиця Гарматна, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>50.447304</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>30.4314826</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>100030000052372</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3">
-        <v>50.435970500000003</v>
-      </c>
-      <c r="E13" s="3">
-        <v>30.508039799999999</v>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> М. КИЇВ, ВУЛ.САКСАГАНСЬКОГО, 57-А, КАФЕ "МУСАФІР"</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Саксаганського, 57А, Київ, Україна, 01033</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>50.4359705</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>30.5080398</v>
       </c>
     </row>
   </sheetData>

--- a/pocs_address_result.xlsx
+++ b/pocs_address_result.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="67" customWidth="1" min="2" max="2"/>
+    <col width="70" customWidth="1" min="2" max="2"/>
     <col width="70" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
@@ -507,246 +507,5998 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>1003703092</v>
+        <v>1000301468</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> м.Ів-Франк,вул.Деповська,97 гот-рест."Станісл.двір</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>вулиця Деповська, 97, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>48.9229278</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>24.7292929</v>
-      </c>
+          <t>с.Н.Петрівці, пров.Першого Травня, буд.40</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>1003824807</v>
+        <v>1002505472</v>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> м.Новояворівськ С Бандери 38</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>вулиця Степана Бандери, 38, Новояворівськ, Львівська область, Україна, 81053</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>49.9307665</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>23.5749822</v>
-      </c>
+          <t>с.Лиса Гора, вул.Радянська, буд.34</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>1004004027</v>
+        <v>1002700367</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> с.Лиман, пл.Леніна, магазин</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="3" t="n"/>
+          <t>с.Красненьке, вул.Леніна, буд.28</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Євгенія Харченка, 28, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>50.3884193</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>30.690679</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>1009315412</v>
+        <v>1002704295</v>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Звпоріжжя ул.Гудыменко,5 м-н "Пятачок"</t>
+          <t>с.Вишківці, вул.Леніна, буд.4</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>вулиця Героїв 93-ї бригади, 5, Запоріжжя, Запорізька область, Україна, 69000</t>
+          <t>Вишківці, Вінницька область, Україна, 22847</t>
         </is>
       </c>
       <c r="D5" s="3" t="n">
-        <v>47.8205179</v>
+        <v>48.8227421</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>35.0461367</v>
+        <v>28.8273571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>1009317516</v>
+        <v>1003200946</v>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Звпоріжжя ул.Грязнова,45 шатер "Чернигов"</t>
+          <t>м. Кривий Ріг  Всебратське-2, буд. 50</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>вулиця Фортечна, 45, Запоріжжя, Запорізька область, Україна, 69000</t>
+          <t>мікрорайон Всебратське-2, Кривий Ріг, Дніпропетровська область, Україна, 50000</t>
         </is>
       </c>
       <c r="D6" s="3" t="n">
-        <v>47.8211241</v>
+        <v>47.8795316</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>35.1681612</v>
+        <v>33.2553299</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>1010602783</v>
+        <v>1003200949</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> с.Есмань, вул.Миру, буд.4/2</t>
+          <t>м. Кривий Ріг вул. Олександра Поля 3</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Есмань, Сумська область, Україна, 41432</t>
+          <t>вулиця Олександра Поля, 3, Кривий Ріг, Дніпропетровська область, Україна, 50000</t>
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>51.7676911</v>
+        <v>47.903265</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>34.0583682</v>
+        <v>33.3427692</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>1011103625</v>
+        <v>1003200962</v>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> с.Вишневе, Першотравнева, будинок № 2</t>
+          <t>пос. Красная Балка, ул Затышна 2-А.</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>вулиця Першотравнева, Вишневе, Київська обл., Україна, 08132</t>
+          <t>Красна Балка, Дніпропетровська область, Україна, 53002</t>
         </is>
       </c>
       <c r="D8" s="3" t="n">
-        <v>50.3822139</v>
+        <v>48.0951532</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>30.3792114</v>
+        <v>33.4270455</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>100020000015515</v>
+        <v>1003200963</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> с. Счастливое, пер. Надежды, 1 _ "КОЛО 1,5"</t>
+          <t>м. Кривий Ріг вул.пр.Гагаріна 46В</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Щасливе, Київська обл., Україна</t>
+          <t>проспект Гагаріна, 46, Кривий Ріг, Дніпропетровська область, Україна, 50000</t>
         </is>
       </c>
       <c r="D9" s="3" t="n">
-        <v>50.3760418</v>
+        <v>47.9084874</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>30.79903079999999</v>
+        <v>33.406346</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>100020000015560</v>
+        <v>1003700060</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> м.Київ, Дарницький р-н, вул.Декабристів, 2А(літ."Б")</t>
+          <t>м.Івано-Франківськ,вул.декабристів,11.магазин"Фінський"</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>вулиця Декабристів, 2а, Київ, Україна, 02000</t>
+          <t>вулиця Українських Декабристів, 11, Микитинці, Івано-Франківська область, Україна, 76494</t>
         </is>
       </c>
       <c r="D10" s="3" t="n">
-        <v>50.4077335</v>
+        <v>48.9120567</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>30.655935</v>
+        <v>24.7467951</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>100020000015828</v>
+        <v>1003700743</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> с.Мартусівка, вул.Бориспільська, буд.6</t>
+          <t>с.Корости, вул.Центральна, буд.1</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>вулиця Бориспільська, 6, Мартусівка, Київська обл., Україна, 08343</t>
+          <t>вулиця Центральна, 1, Літочки, Київська обл., Україна, 07410</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>50.3043925</v>
+        <v>50.7557024</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>30.8667075</v>
+        <v>30.7645025</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>100030000052221</v>
+        <v>1003701189</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> М. КИЇВ, ВУЛ. ГАРМАТНА, БУД. 26/2 КОНЦЕРТНА ПЛОЩАДКА "VOLUME CLUB"</t>
+          <t>смт.Делятин маг"Продукти"</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>26/2, вулиця Гарматна, Київ, Україна, 02000</t>
+          <t>Делятин, Івано-Франківська область, Україна</t>
         </is>
       </c>
       <c r="D12" s="3" t="n">
-        <v>50.447304</v>
+        <v>48.5328777</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>30.4314826</v>
+        <v>24.6250666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>100030000052372</v>
+        <v>1003701466</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> М. КИЇВ, ВУЛ.САКСАГАНСЬКОГО, 57-А, КАФЕ "МУСАФІР"</t>
+          <t>с. Угорники, вул.Повстанців,70, магазин "Франко Маркет"</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>вулиця Саксаганського, 57А, Київ, Україна, 01033</t>
+          <t>вулиця Повстанців, 70, Угорники, Івано-Франківська область, Україна, 76492</t>
         </is>
       </c>
       <c r="D13" s="3" t="n">
-        <v>50.4359705</v>
+        <v>48.9163711</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>30.5080398</v>
+        <v>24.7583358</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>1003701702</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Тлумацький р-н,м.Тлумач,вул.1 травня,30а,магазин"Тетянка"</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>вулиця 1 Травня, Тлумач, Івано-Франківська область, Україна, 78001</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>48.869692</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>25.0071593</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1003701899</v>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>м.Рогатин пл. Роксолани14 маг.Марія</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>площа Роксолани, 14, Рогатин, Івано-Франківська область, Україна, 77001</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>49.4096851</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>24.6086405</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1003703110</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>с.Тязів, вул.Шевченка, буд.17</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Шевченка, 17, Львів, Львівська область, Україна, 79000</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>49.8449254</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>24.0090919</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1003703200</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>с.Голосків.вул.Лесі Українки,27,магазин"Промпродтовари"</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n"/>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1003703237</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>с.Буковець, магазин на зупинці</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Буковець, Івано-Франківська область, Україна, 78711</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>48.1994853</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>24.9393714</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1003704717</v>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>с.Черніїв, вул.Марковецька, буд.53</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Марковецька, 53, Черніїв, Івано-Франківська область, Україна, 77460</t>
+        </is>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>48.8607093</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>24.7235888</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1003705244</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>с.Сваричів Корзинка</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Довга, 61а, Сваричів, Івано-Франківська область, Україна, 77605</t>
+        </is>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>48.9583709</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>24.1840654</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1003705799</v>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Рогатинський р-н, с. Верхня Липиця, вул.Центральна, 17/А, торгівельний павільйон</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Верхня Липиця, Івано-Франківська область, Україна, 77043</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>49.35299879999999</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>24.7838844</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>1003705815</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Тисменицький р-н,с.Черніїв,вул.Хвильового,2,магазин"Марія"</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Хвильового, Черніїв, Івано-Франківська область, Україна, 77460</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>48.8639461</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>24.7186874</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>1003706062</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>смт.Верховина Жаб"євський потік перед заправкою</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Жаб'євський потік, Верховина, Івано-Франківська область, Україна</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>48.1433235</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>24.825829</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>1003706940</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>смт.Вигода,вул.Д.Галицького,10, Магазин-кафе "Вигодянка"</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Данила Галицького, Вигода, Івано-Франківська область, Україна, 77552</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>48.9349175</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>23.9113046</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>1003707229</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ,с.Микитинці. вул.Грицишина, 53</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Грицишина, 53, Микитинці, Івано-Франківська область, Україна, 76494</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>48.9024282</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>24.7472557</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>1003707294</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Калуський р-н, с.Кропивник, вул.Франка, 114, крамниця "Мрія"</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>вул. Івана Франка, 114, Кропивник, Івано-Франківська область, Україна, 77340</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>49.0333832</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>24.2662365</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>1003708010</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>с.Підлісся, вул.Січових Стрільців 10</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Січових Стрільців, Підлісся, Івано-Франківська область, Україна, 77451</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>48.9026123</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>24.6280703</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>1003710039</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Снятинський р-н,с.Балинці,вул.Заньковецької,8,магазин"Продукти"</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Балинці, Івано-Франківська область, Україна, 78312</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>48.55450099999999</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>25.2871884</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>1003711069</v>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Рожнятівський р-н, с.Сваричів, вул.Довга, 134/в, магазин-кафе</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>Сваричів, Івано-Франківська область, Україна, 77605</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>48.9612707</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>24.1906345</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>1003711131</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ,вул.Південнй Бульвар,30, магазин"Фреш-Маркет"</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>Південний бульвар, 30, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>48.9206435</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>24.6988659</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>1003711191</v>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>м.Надвірна,вул.Грушевського, 7В,кафе "Фаст-Фут" хорека</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Михайла Грушевського, 7В, Надвірна, Івано-Франківська область, Україна, 78400</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>48.6324619</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>24.5642549</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>1003711628</v>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>м.Яремче, вул.Свободи, буд.253а</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Свободи, 253а, Яремче, Івано-Франківська область, Україна, 78500</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>48.4515952</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>24.5555337</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>1003711790</v>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ, вул.Василіянок, буд.15</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Василіянок, 15, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>48.9259664</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>24.7159233</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>1003711971</v>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Івано-Франківська обл., Косівський р-н, с.Город, вул.Незалежності, магазин</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Незалежності, Косів, Івано-Франківська область, Україна, 78600</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>48.3173404</v>
+      </c>
+      <c r="E34" s="3" t="n">
+        <v>25.0875244</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>1003824807</v>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>м.Новояворівськ С Бандери 38</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Степана Бандери, 38, Новояворівськ, Львівська область, Україна, 81053</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>49.9307665</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>23.5749822</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>1003826001</v>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>смт.Шкло,Сагайдачного</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Шкло, Львівська область, Україна</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>49.9484387</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>23.5302946</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>1003827032</v>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>смт.Шкло,Шевченка,1а</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Шкло, Львівська область, Україна</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>49.9484387</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>23.5302946</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>1008301436</v>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>вул.Коротченко,1 маг.</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Медова, 1, Петропавлівська Борщагівка, Київська обл., Україна, 08130</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>50.4346927</v>
+      </c>
+      <c r="E38" s="3" t="n">
+        <v>30.3364914</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>1008808022</v>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>с.Хрещатик, вул.Кармелюка, буд.1</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Хрещатик, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="n">
+        <v>50.4475854</v>
+      </c>
+      <c r="E39" s="3" t="n">
+        <v>30.5220257</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>1008809467</v>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>с.Мельниківка, вул.Гоголя, буд.10</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Мельниківка, Черкаська область, Україна, 20728</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="n">
+        <v>49.1662776</v>
+      </c>
+      <c r="E40" s="3" t="n">
+        <v>31.6655114</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>1009100590</v>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>с.Пристроми, вул.Миколаївська, буд.56</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>Пристроми, Київська обл., Україна, 08410</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>50.2220887</v>
+      </c>
+      <c r="E41" s="3" t="n">
+        <v>31.4333766</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>1011103625</v>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>с.Вишневе, Першотравнева, будинок № 2</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Першотравнева, Вишневе, Київська обл., Україна, 08132</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>50.3822139</v>
+      </c>
+      <c r="E42" s="3" t="n">
+        <v>30.3792114</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>1014900701</v>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>м.Тернопіль, вул.Клінічна, буд.1б, Чернігівське</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Клінічна, 1м, Тернопіль, Тернопільська область, Україна, 46002</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="n">
+        <v>49.55438540000001</v>
+      </c>
+      <c r="E43" s="3" t="n">
+        <v>25.6123559</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>1014907382</v>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>м.Тернопіль, вул.Протасевича, збаразьке кільце Парус</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Протасевича, 2, Тернопіль, Тернопільська область, Україна, 46002</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="n">
+        <v>49.54658509999999</v>
+      </c>
+      <c r="E44" s="3" t="n">
+        <v>25.6343694</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>100020000015850</v>
+      </c>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>м.Київ, вул.Пчілки, буд.2</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Олени Пчілки, 2, Київ, Україна, 02081</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="n">
+        <v>50.4152524</v>
+      </c>
+      <c r="E45" s="3" t="n">
+        <v>30.62523</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>100030000058747</v>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>вул. Гарматна, 49, магазин, 41.0 М.КВ</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Гарматна, 49, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>50.4400413</v>
+      </c>
+      <c r="E46" s="3" t="n">
+        <v>30.4334209</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>100030000058949</v>
+      </c>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>ПР-Т. НАУКИ, БУД. 171,АЗС, №1 З МАГАЗИНОМ-КАФЕ ТА АВТОМИЙКОЮ</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>проспект Науки, 171, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="n">
+        <v>50.3718668</v>
+      </c>
+      <c r="E47" s="3" t="n">
+        <v>30.5486879</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>100030000058951</v>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>м.Київ, Заболотного, 174</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>вул. Академіка Заболотного, 174, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="n">
+        <v>50.3462641</v>
+      </c>
+      <c r="E48" s="3" t="n">
+        <v>30.4996746</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>100030000058953</v>
+      </c>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>М.КИЇВ, ПРОСП. АКАДЕМІКА ГЛУШКОВА, 70 (АЗС №9)</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>проспект Академіка Глушкова, 70, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="n">
+        <v>50.3578615</v>
+      </c>
+      <c r="E49" s="3" t="n">
+        <v>30.4385797</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>100030000058955</v>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>М.КИЇВ, ВУЛ.КІЛЬЦЕВА ДОРОГА, 5 (АЗС №18)</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>Кільцева дорога, 5, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>50.3800025</v>
+      </c>
+      <c r="E50" s="3" t="n">
+        <v>30.44344359999999</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>100030000058956</v>
+      </c>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>М.КИЇВ, ВУЛ.ЛОБАНОВСЬКОГО, 126/1</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>проспект Валерія Лобановського, 126/1, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="n">
+        <v>50.4074606</v>
+      </c>
+      <c r="E51" s="3" t="n">
+        <v>30.5001732</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>100030000058960</v>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>ул. Мыхайла Бойчука 17/10</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Михайла Бойчука, 17/10, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="n">
+        <v>50.4129227</v>
+      </c>
+      <c r="E52" s="3" t="n">
+        <v>30.5494359</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>100030000058961</v>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>вул. Набережно-Корчуватська 29</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Набережно-Корчуватська, 29, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="n">
+        <v>50.3709213</v>
+      </c>
+      <c r="E53" s="3" t="n">
+        <v>30.5512975</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>100030000058972</v>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>вул. Набережно-Корчуватська   56-68</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Набережно-Корчуватська, 56, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>50.3709503</v>
+      </c>
+      <c r="E54" s="3" t="n">
+        <v>30.5508522</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>100030000058973</v>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>Ірпінь, Мечнікова, 118А</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Мечникова, 118а, Ірпінь, Київська обл., Україна, 08200</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n">
+        <v>50.5195273</v>
+      </c>
+      <c r="E55" s="3" t="n">
+        <v>30.21096769999999</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>100030000058974</v>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Ірпінь, Університетська, 2/1</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Університетська, 2/1, Ірпінь, Київська обл., Україна, 08200</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="n">
+        <v>50.5072003</v>
+      </c>
+      <c r="E56" s="3" t="n">
+        <v>30.2337551</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>100030000058978</v>
+      </c>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Буча, Нове шосе, 8 </t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>Нове шосе, 8, Буча, Київська обл., Україна, 08292</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="n">
+        <v>50.5546856</v>
+      </c>
+      <c r="E57" s="3" t="n">
+        <v>30.2135961</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>100030000058980</v>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>г. Киев, ул. Пчелки 2</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Олени Пчілки, 2, Київ, Україна, 02081</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>50.4152524</v>
+      </c>
+      <c r="E58" s="3" t="n">
+        <v>30.62523</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>100030000058982</v>
+      </c>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>Маяковського 75д</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>проспект Володимира Маяковського, 75, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="n">
+        <v>50.5171544</v>
+      </c>
+      <c r="E59" s="3" t="n">
+        <v>30.6176948</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>100030000058983</v>
+      </c>
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>С. ПЕТРОПАВЛІВСЬКА БОРЩАГІВКА, ВУЛ. ВОЛИНСЬКА, 11 ЧАСТИНА НЕЖИТЛОВОГО ПРИМ. №1, МАГАЗИН-КАФЕ</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Волинська, 11, Петропавлівська Борщагівка, Київська обл., Україна, 08130</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="n">
+        <v>50.4344818</v>
+      </c>
+      <c r="E60" s="3" t="n">
+        <v>30.3183048</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>100030000058984</v>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>м. Ірпінь, Гостомельське шосе 3 В, магазин-кафе</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>Гостомельське шосе, 3, Ірпінь, Київська обл., Україна, 08200</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="n">
+        <v>50.54037659999999</v>
+      </c>
+      <c r="E61" s="3" t="n">
+        <v>30.2592347</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>100030000058985</v>
+      </c>
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>вул. Тростянецька 8</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Тростянецька, 8, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="n">
+        <v>50.4170072</v>
+      </c>
+      <c r="E62" s="3" t="n">
+        <v>30.652754</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>100030000058986</v>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>вул. Декабристів 9е</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Декабристів, 9Е, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="n">
+        <v>50.4030607</v>
+      </c>
+      <c r="E63" s="3" t="n">
+        <v>30.6540624</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>100030000058987</v>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>вул. Драгоманова 31</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Михайла Драгоманова, 31, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="n">
+        <v>50.4010203</v>
+      </c>
+      <c r="E64" s="3" t="n">
+        <v>30.6373204</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>100030000058988</v>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>ВУЛ. УРЛІВСЬКА 22/44</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Урлівська, 22, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>50.4090303</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>30.6207596</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>100030000058989</v>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>вул. Ігоря Шамо 20</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>бульвар Ігоря Шамо, 20, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>50.4422679</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>30.5985592</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>100030000058990</v>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>вул. Драгоманова 27</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Михайла Драгоманова, 27, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>50.4027329</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>30.6370559</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>100030000058991</v>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>вул. Вінгрвновського 2</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Вінграновського, 2, Миколаїв, Миколаївська область, Україна, 54000</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="n">
+        <v>46.97155919999999</v>
+      </c>
+      <c r="E68" s="3" t="n">
+        <v>32.0614747</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>100030000058992</v>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>м. Київ, вул. Промислова, 2 магазин-кафе</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Промислова, 2, Київ, Україна, 01013</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>50.3962032</v>
+      </c>
+      <c r="E69" s="3" t="n">
+        <v>30.5600929</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>100030000058993</v>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>вул. Княжий Затон 9</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Княжий Затон, 9, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="n">
+        <v>50.4021429</v>
+      </c>
+      <c r="E70" s="3" t="n">
+        <v>30.6250429</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>100030000058994</v>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>вул. Драгоманова 2</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Михайла Драгоманова, 2, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>50.4180322</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>30.6341929</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>100030000058995</v>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>вул. Олени бджілки 6</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="n"/>
+      <c r="D72" s="3" t="n"/>
+      <c r="E72" s="3" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>100030000058996</v>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>проспект Гагаріна 12/1</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>проспект Юрія Гагаріна, 12/1, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>50.4473514</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>30.6288861</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>100030000058997</v>
+      </c>
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>вул. Курнатовського 22/10</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Остафія Дашкевича, 22, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="n">
+        <v>50.4873682</v>
+      </c>
+      <c r="E74" s="3" t="n">
+        <v>30.6030889</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>100030000058998</v>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>вул. Євгена Харченка 45а</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Євгенія Харченка, 45А, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="n">
+        <v>50.3859553</v>
+      </c>
+      <c r="E75" s="3" t="n">
+        <v>30.6941603</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>100030000058999</v>
+      </c>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>Русанівський бульвар 12</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>Русанівський бульвар, 12, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="n">
+        <v>50.4381417</v>
+      </c>
+      <c r="E76" s="3" t="n">
+        <v>30.5960552</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>100030000059000</v>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>вул. Будівельників 1</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Будівельників, 1, Київ, Україна, 02100</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="n">
+        <v>50.44418899999999</v>
+      </c>
+      <c r="E77" s="3" t="n">
+        <v>30.6254776</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>100030000059001</v>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>Лісний проспект 18</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>Лісовий проспект, 18, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="n">
+        <v>50.4796693</v>
+      </c>
+      <c r="E78" s="3" t="n">
+        <v>30.62744529999999</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>100050000007502</v>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>м.Фастів, вул.Европейська, буд.208</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Європейська, 208, Фастів, Київська обл., Україна, 08500</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="n">
+        <v>50.09585269999999</v>
+      </c>
+      <c r="E79" s="3" t="n">
+        <v>29.9195802</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>100050000007529</v>
+      </c>
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>с.Петропавлівська Борщагівка, вул.Шкільна, буд.22-Б</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Шкільна, 22б, Петропавлівська Борщагівка, Київська обл., Україна, 08130</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="n">
+        <v>50.43993440000001</v>
+      </c>
+      <c r="E80" s="3" t="n">
+        <v>30.33974899999999</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>100050000007531</v>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>с.Тарасівка, вул.Калініна, буд.13-А</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>Тарасівка, Київська обл., Україна, 08161</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="n">
+        <v>50.34464329999999</v>
+      </c>
+      <c r="E81" s="3" t="n">
+        <v>30.3187731</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>100050000007532</v>
+      </c>
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>м. Київ, вул. Щусєва 4</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Щусєва, 4, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="n">
+        <v>50.4738198</v>
+      </c>
+      <c r="E82" s="3" t="n">
+        <v>30.4468007</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>100050000007533</v>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>вул. Льва Толстого 23/1 барбершоп "FRISOR"</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Льва Толстого, 23/1, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="n">
+        <v>50.4409065</v>
+      </c>
+      <c r="E83" s="3" t="n">
+        <v>30.5066606</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>100050000007534</v>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>м.Ржищів, вул.Київський Шлях, буд.38</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Київський шлях, 38, Бориспіль, Київська обл., Україна, 08300</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="n">
+        <v>50.3542893</v>
+      </c>
+      <c r="E84" s="3" t="n">
+        <v>30.9468583</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>100050000007539</v>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>вул. Івана Мазепи 1 ресторан "Boho Yosai"</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Івана Мазепи, 1, Київ, Україна, 01010</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="n">
+        <v>50.4442341</v>
+      </c>
+      <c r="E85" s="3" t="n">
+        <v>30.5445999</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>100050000007540</v>
+      </c>
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>м.Київ, вул.Кудряшова, буд.3</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Кудряшова, 3, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="n">
+        <v>50.4344042</v>
+      </c>
+      <c r="E86" s="3" t="n">
+        <v>30.4909842</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>100050000007543</v>
+      </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>смт.Крюківщина, вул.Асканія, буд.11/2 склад</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>Крюківщина, Київська обл., Україна</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="n">
+        <v>50.366903</v>
+      </c>
+      <c r="E87" s="3" t="n">
+        <v>30.3697806</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>100050000007544</v>
+      </c>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>с.Крюківщина, вул.Асканія, буд.11/2 склад</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>Крюківщина, Київська обл., Україна</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="n">
+        <v>50.366903</v>
+      </c>
+      <c r="E88" s="3" t="n">
+        <v>30.3697806</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>100050000007545</v>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>с.Крюківщина, вул.Асканія, буд.11/2 склад</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>Крюківщина, Київська обл., Україна</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="n">
+        <v>50.366903</v>
+      </c>
+      <c r="E89" s="3" t="n">
+        <v>30.3697806</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>100050000007546</v>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>с.Крюківщина, вул.Асканія, буд.11/2 склад</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>Крюківщина, Київська обл., Україна</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="n">
+        <v>50.366903</v>
+      </c>
+      <c r="E90" s="3" t="n">
+        <v>30.3697806</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>100050000007547</v>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>м.Фастів, вул.Шевченка, буд.1-А</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Тараса Шевченка, 1А, Фастів, Київська обл., Україна, 08500</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="n">
+        <v>50.0781612</v>
+      </c>
+      <c r="E91" s="3" t="n">
+        <v>29.9209471</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>100050000007548</v>
+      </c>
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>м.Фастів, вул.Київська, буд.32</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Київська, 32, Фастів, Київська обл., Україна, 08500</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="n">
+        <v>50.0841836</v>
+      </c>
+      <c r="E92" s="3" t="n">
+        <v>29.9317385</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>100050000007549</v>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>м.Фастів, вул.Капітана Строкова, буд.3-А</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Капітана Строкова, 3а, Фастів, Київська обл., Україна, 08500</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="n">
+        <v>50.0823949</v>
+      </c>
+      <c r="E93" s="3" t="n">
+        <v>29.9197489</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>100050000007550</v>
+      </c>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>м.Фастів, вул.Соборна, буд.65-В</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Соборна, 65, Фастів, Київська обл., Україна, 08500</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="n">
+        <v>50.07968899999999</v>
+      </c>
+      <c r="E94" s="3" t="n">
+        <v>29.9070729</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>100050000007551</v>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>м.Фастів, вул.Льва Толстого, буд.24</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>Фастів, Київська обл., Україна, 08500</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="n">
+        <v>50.0637682</v>
+      </c>
+      <c r="E95" s="3" t="n">
+        <v>29.90496839999999</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>100050000007553</v>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>Печерський узвіз 18</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>Печерський узвіз, 18, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="n">
+        <v>50.435811</v>
+      </c>
+      <c r="E96" s="3" t="n">
+        <v>30.5395506</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>100050000007554</v>
+      </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>ул. Кириловская 122/1</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Кирилівська, 122/1, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="n">
+        <v>50.4833037</v>
+      </c>
+      <c r="E97" s="3" t="n">
+        <v>30.4767018</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>100050000007555</v>
+      </c>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>ул. Щербаковского 56/7</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Данила Щербаківського, 56/7, Київ, Україна, 04111</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="n">
+        <v>50.4726943</v>
+      </c>
+      <c r="E98" s="3" t="n">
+        <v>30.4062551</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>100050000007557</v>
+      </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>вул. Гарматна 20</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Гарматна, 20, Київ, Україна, 03067</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="n">
+        <v>50.4492951</v>
+      </c>
+      <c r="E99" s="3" t="n">
+        <v>30.4331437</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>100050000007558</v>
+      </c>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>м.Кагарлик, вул.Незалежності, буд.30</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Незалежності, 30, Кагарлик, Київська обл., Україна, 09200</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="n">
+        <v>49.8627974</v>
+      </c>
+      <c r="E100" s="3" t="n">
+        <v>30.8330261</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>100050000007561</v>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>м.Київ, просп.Перемоги буд.128/2</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>проспект Перемоги, 128/2, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="n">
+        <v>50.4567974</v>
+      </c>
+      <c r="E101" s="3" t="n">
+        <v>30.3728667</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100050000007562</v>
+      </c>
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>м.Київ, вул.Івана Виговського, буд.18</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Івана Виговського, 18, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D102" s="3" t="n">
+        <v>50.48995009999999</v>
+      </c>
+      <c r="E102" s="3" t="n">
+        <v>30.4065968</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>100050000007563</v>
+      </c>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>м.Буча, вул.Бориса Гмирі, буд.20-а</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Бориса Гмирі, 20А, Буча, Київська обл., Україна, 08292</t>
+        </is>
+      </c>
+      <c r="D103" s="3" t="n">
+        <v>50.53955750000001</v>
+      </c>
+      <c r="E103" s="3" t="n">
+        <v>30.1885796</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>100050000007564</v>
+      </c>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>Немішаєве вул. Гагаріна 8</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>Немішаєве, Київська обл., Україна, 07853</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="n">
+        <v>50.5638206</v>
+      </c>
+      <c r="E104" s="3" t="n">
+        <v>30.0889889</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>100050000007565</v>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>вул. Святошинська 3-А "Пузата Хата"</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Святошинська, 3А, Київ, Україна, 03115</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="n">
+        <v>50.4552396</v>
+      </c>
+      <c r="E105" s="3" t="n">
+        <v>30.3881192</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>100050000007566</v>
+      </c>
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>пр-т Перемоги134/10 "Пузата Хата" (ХІТ Mall)</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>проспект Перемоги, 134/1, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="n">
+        <v>50.4563612</v>
+      </c>
+      <c r="E106" s="3" t="n">
+        <v>30.3639248</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>100050000007575</v>
+      </c>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>вул. Юрія Іллєнка 83-Д "Пузата Хата"</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Юрія Іллєнка, 83Д, Київ, Україна, 04119</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="n">
+        <v>50.469841</v>
+      </c>
+      <c r="E107" s="3" t="n">
+        <v>30.4662799</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>100050000007576</v>
+      </c>
+      <c r="B108" s="3" t="inlineStr">
+        <is>
+          <t>пр-т Перемоги 24 "Пузата Хата" (Смарт Плаза)</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>ТЦ Smart Plaza, проспект Перемоги, 24, Київ, Україна, 04116</t>
+        </is>
+      </c>
+      <c r="D108" s="3" t="n">
+        <v>50.4514302</v>
+      </c>
+      <c r="E108" s="3" t="n">
+        <v>30.4674855</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>100050000007577</v>
+      </c>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>вул. Олександра Довженка 1-В "Пузата Хата" (ТЦ Точка)</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>Точка, вулиця Олександра Довженка, 1В, Київ, Україна, 03057</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="n">
+        <v>50.4557413</v>
+      </c>
+      <c r="E109" s="3" t="n">
+        <v>30.4458605</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>100090000001164</v>
+      </c>
+      <c r="B110" s="3" t="inlineStr">
+        <is>
+          <t>с.Мрин, вул.Червонопартизанська, буд.36</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>Мрин, Чернігівська область, Україна, 17113</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="n">
+        <v>51.0498747</v>
+      </c>
+      <c r="E110" s="3" t="n">
+        <v>31.5505579</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>100090000001287</v>
+      </c>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>м.Прилуки,Київська, буд.170</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Київська, 170, Прилуки, Чернігівська область, Україна, 17500</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="n">
+        <v>50.5948158</v>
+      </c>
+      <c r="E111" s="3" t="n">
+        <v>32.3841906</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>100090000001288</v>
+      </c>
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>м. Бахмач,Першотравнева,24/1</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Першотравнева, 24, Бахмач, Чернігівська область, Україна, 16500</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="n">
+        <v>51.1782809</v>
+      </c>
+      <c r="E112" s="3" t="n">
+        <v>32.8289072</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>100110000000496</v>
+      </c>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>с.Новоолександрівка, вул.Ватутіна, буд.20</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>Новоолександрівка, Дніпропетровська область, Україна</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="n">
+        <v>48.3447034</v>
+      </c>
+      <c r="E113" s="3" t="n">
+        <v>34.9898741</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>100170000000220</v>
+      </c>
+      <c r="B114" s="3" t="inlineStr">
+        <is>
+          <t>с.Лівинці, вул.Головна, буд.33</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Головна, 33, Чернівці, Чернівецька область, Україна, 58001</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="n">
+        <v>48.2937387</v>
+      </c>
+      <c r="E114" s="3" t="n">
+        <v>25.9365933</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>100190000003401</v>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>з/о Коблево, пр-т. Курортний, буд.46-А, універсам</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>проспект Курортний, 46б, Коблеве, Миколаївська область, Україна, 57453</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="n">
+        <v>46.6210268</v>
+      </c>
+      <c r="E115" s="3" t="n">
+        <v>31.2162869</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>100200000004544</v>
+      </c>
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>м. Одеса, вул. Кримська, буд. 70А</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>Кримська вулиця, 70А, Одеса, Одеська область, Україна, 65000</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="n">
+        <v>46.57873559999999</v>
+      </c>
+      <c r="E116" s="3" t="n">
+        <v>30.7907242</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>100240000000383</v>
+      </c>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>с.Новоселівка, вул.Шевченка, 57</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="n"/>
+      <c r="D117" s="3" t="n"/>
+      <c r="E117" s="3" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>100240000000445</v>
+      </c>
+      <c r="B118" s="3" t="inlineStr">
+        <is>
+          <t>Усатівська с/р. км.462+82м</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="n"/>
+      <c r="D118" s="3" t="n"/>
+      <c r="E118" s="3" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>100240000003724</v>
+      </c>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>Черкас.Геронимівка вул. Мічуріна 1 А   доставка з 09,00 до 17,00</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>Геронимівка, Черкаська область, Україна, 19601</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="n">
+        <v>49.4500987</v>
+      </c>
+      <c r="E119" s="3" t="n">
+        <v>31.952996</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>100240000003812</v>
+      </c>
+      <c r="B120" s="3" t="inlineStr">
+        <is>
+          <t>м.Черкаси, вул.Шевченка, 385</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="inlineStr">
+        <is>
+          <t>бульвар Шевченка, 385, Черкаси, Черкаська область, Україна, 18000</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="n">
+        <v>49.4237529</v>
+      </c>
+      <c r="E120" s="3" t="n">
+        <v>32.0969074</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>100240000003813</v>
+      </c>
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>м.Черкаси, вул.Благовісна, 300</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Благовісна, 300, Черкаси, Черкаська область, Україна, 18000</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="n">
+        <v>49.4269639</v>
+      </c>
+      <c r="E121" s="3" t="n">
+        <v>32.079776</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>100240000003816</v>
+      </c>
+      <c r="B122" s="3" t="inlineStr">
+        <is>
+          <t>м.Черкаси, вул.Університетська, 25</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Університетська, 25, Черкаси, Черкаська область, Україна, 18000</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="n">
+        <v>49.45172849999999</v>
+      </c>
+      <c r="E122" s="3" t="n">
+        <v>32.0440252</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>100250000000017</v>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>смт.Ситківці, вул.Вокзальна, буд.19</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>Ситківці, Вінницька область, Україна, 22865</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="n">
+        <v>48.9060378</v>
+      </c>
+      <c r="E123" s="3" t="n">
+        <v>29.2081047</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>100250000002069</v>
+      </c>
+      <c r="B124" s="3" t="inlineStr">
+        <is>
+          <t>с.Велика Бушинка, вул.Леніна, буд.41-А</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>Велика Бушинка, Вінницька область, Україна</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="n">
+        <v>48.9335581</v>
+      </c>
+      <c r="E124" s="3" t="n">
+        <v>28.8381406</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>100250000003165</v>
+      </c>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>с.Семенки, вул.Дружби, буд.1</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>Семенки, Вінницька область, Україна, 22881</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="n">
+        <v>48.8473487</v>
+      </c>
+      <c r="E125" s="3" t="n">
+        <v>29.1074143</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>100250000004073</v>
+      </c>
+      <c r="B126" s="3" t="inlineStr">
+        <is>
+          <t>м.Козятин , вул.Катукова 39 маг.Господарка</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Катукова, 39, Козятин, Вінницька область, Україна, 22100</t>
+        </is>
+      </c>
+      <c r="D126" s="3" t="n">
+        <v>49.7135396</v>
+      </c>
+      <c r="E126" s="3" t="n">
+        <v>28.8235393</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>100250000004074</v>
+      </c>
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>м. Козятин, вул. Довженка, буд.18</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Довженка, 18, Козятин, Вінницька область, Україна, 22100</t>
+        </is>
+      </c>
+      <c r="D127" s="3" t="n">
+        <v>49.7223807</v>
+      </c>
+      <c r="E127" s="3" t="n">
+        <v>28.8121042</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>100250000004076</v>
+      </c>
+      <c r="B128" s="3" t="inlineStr">
+        <is>
+          <t>с.Уланів, вул.Соборна, буд.65</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Соборна, Уланів, Вінницька область, Україна</t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="n">
+        <v>49.6972248</v>
+      </c>
+      <c r="E128" s="3" t="n">
+        <v>28.122177</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>100250000004077</v>
+      </c>
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>с.Сальниця, вул.Соборна, буд.38</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t>Сальниця, Вінницька область, Україна, 22022</t>
+        </is>
+      </c>
+      <c r="D129" s="3" t="n">
+        <v>49.7350249</v>
+      </c>
+      <c r="E129" s="3" t="n">
+        <v>28.0166568</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>100260000003770</v>
+      </c>
+      <c r="B130" s="3" t="inlineStr">
+        <is>
+          <t>с.Оліївка, вул.Євгена Рихлика, буд.15</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Євгена Рихліка, 15, Житомир, Житомирська область, Україна, 10031</t>
+        </is>
+      </c>
+      <c r="D130" s="3" t="n">
+        <v>50.27833159999999</v>
+      </c>
+      <c r="E130" s="3" t="n">
+        <v>28.6611967</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>100280000004248</v>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>г.Суми, проспект Шевченка 7</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>проспект Тараса Шевченка, 7, Суми, Сумська область, Україна, 40000</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="n">
+        <v>50.9201698</v>
+      </c>
+      <c r="E131" s="3" t="n">
+        <v>34.8067927</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>100290000001666</v>
+      </c>
+      <c r="B132" s="3" t="inlineStr">
+        <is>
+          <t>с.Юрківці, вул.Центральна, буд.17</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>Юрківці, Чернівецька область, Україна, 59440</t>
+        </is>
+      </c>
+      <c r="D132" s="3" t="n">
+        <v>48.49916289999999</v>
+      </c>
+      <c r="E132" s="3" t="n">
+        <v>25.9300373</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>100290000001932</v>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>Гнівань, вул. Вінницьке шосе, АГЗК м. Гнівань</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>Гнівань, Вінницька область, Україна</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="n">
+        <v>49.0877258</v>
+      </c>
+      <c r="E133" s="3" t="n">
+        <v>28.348201</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>100300000001236</v>
+      </c>
+      <c r="B134" s="3" t="inlineStr">
+        <is>
+          <t>вул.Пархоменко, 22б, кафе "Визави"</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="n"/>
+      <c r="D134" s="3" t="n"/>
+      <c r="E134" s="3" t="n"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>100300000001341</v>
+      </c>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>ул.Глазунова, напротив дома Историческая, 20а рыно</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="n"/>
+      <c r="D135" s="3" t="n"/>
+      <c r="E135" s="3" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>100300000001342</v>
+      </c>
+      <c r="B136" s="3" t="inlineStr">
+        <is>
+          <t>м.Запоріжжя вул.Лахтинська, буд.10, магазин</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
+        <is>
+          <t>Лахтинська вулиця, 10, Запоріжжя, Запорізька область, Україна, 69000</t>
+        </is>
+      </c>
+      <c r="D136" s="3" t="n">
+        <v>47.8142828</v>
+      </c>
+      <c r="E136" s="3" t="n">
+        <v>35.0436341</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>100300000001343</v>
+      </c>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>м.Запоріжжя вул.Щаслива, буд.3, кафе "Марія"</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>Щаслива вулиця, 3, Запоріжжя, Запорізька область, Україна, 69000</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="n">
+        <v>47.8775805</v>
+      </c>
+      <c r="E137" s="3" t="n">
+        <v>35.0567592</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>100340000001568</v>
+      </c>
+      <c r="B138" s="3" t="inlineStr">
+        <is>
+          <t>м.Луцьк, пр.Волі, буд.56А-5</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
+        <is>
+          <t>проспект Волі, 56, Луцьк, Волинська область, Україна, 43000</t>
+        </is>
+      </c>
+      <c r="D138" s="3" t="n">
+        <v>50.74371259999999</v>
+      </c>
+      <c r="E138" s="3" t="n">
+        <v>25.3469463</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>100340000004158</v>
+      </c>
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>м.Луцьк, вул.Даньшина, буд.14в</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Даньшина, 14в, Луцьк, Волинська область, Україна, 43000</t>
+        </is>
+      </c>
+      <c r="D139" s="3" t="n">
+        <v>50.72658910000001</v>
+      </c>
+      <c r="E139" s="3" t="n">
+        <v>25.3015613</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>100340000004169</v>
+      </c>
+      <c r="B140" s="3" t="inlineStr">
+        <is>
+          <t>м.Луцьк, вул.Кравчука, буд.32-А</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Кравчука, 32- А, Луцьк, Волинська область, Україна, 43026</t>
+        </is>
+      </c>
+      <c r="D140" s="3" t="n">
+        <v>50.7604306</v>
+      </c>
+      <c r="E140" s="3" t="n">
+        <v>25.3570401</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>100340000004170</v>
+      </c>
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>м.Луцьк, пр.Соборності, буд.11</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>проспект Соборності, 11, Луцьк, Волинська область, Україна, 43000</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="n">
+        <v>50.7626423</v>
+      </c>
+      <c r="E141" s="3" t="n">
+        <v>25.3671639</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>100370000000370</v>
+      </c>
+      <c r="B142" s="3" t="inlineStr">
+        <is>
+          <t>с.Голинь, вул. 600-річчя Голиня, 35А,маг."Крамниця №3"</t>
+        </is>
+      </c>
+      <c r="C142" s="3" t="inlineStr">
+        <is>
+          <t>600 - річчя Голиня, 35, Голинь, Івано-Франківська область, Україна, 77343</t>
+        </is>
+      </c>
+      <c r="D142" s="3" t="n">
+        <v>49.0047432</v>
+      </c>
+      <c r="E142" s="3" t="n">
+        <v>24.2589818</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>100370000000453</v>
+      </c>
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>м.Долина,вул.Б.Хмельницького,15,магазин"Глорія"</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>Долина, Івано-Франківська область, Україна</t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="n">
+        <v>48.9764573</v>
+      </c>
+      <c r="E143" s="3" t="n">
+        <v>23.9892458</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>100370000000460</v>
+      </c>
+      <c r="B144" s="3" t="inlineStr">
+        <is>
+          <t>с.Маріямпіль,вул.Галицька,Крамниця</t>
+        </is>
+      </c>
+      <c r="C144" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Галицька, Маріямпіль, Івано-Франківська область, Україна</t>
+        </is>
+      </c>
+      <c r="D144" s="3" t="n">
+        <v>49.0303913</v>
+      </c>
+      <c r="E144" s="3" t="n">
+        <v>24.8505918</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>100370000000796</v>
+      </c>
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>смт.Ворохта, вул.Данила Галицького, буд.188</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Данила Галицького, 188, Ворохта, Івано-Франківська область, Україна, 78595</t>
+        </is>
+      </c>
+      <c r="D145" s="3" t="n">
+        <v>48.2790843</v>
+      </c>
+      <c r="E145" s="3" t="n">
+        <v>24.5744952</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>100370000001240</v>
+      </c>
+      <c r="B146" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франкывськ, Мазепи, 58, магазин "Гуртові ціни &amp; Алкоголь"</t>
+        </is>
+      </c>
+      <c r="C146" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Гетьмана Мазепи, 58, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D146" s="3" t="n">
+        <v>48.9179695</v>
+      </c>
+      <c r="E146" s="3" t="n">
+        <v>24.7011405</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>100370000001250</v>
+      </c>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ, вул.Галицька, буд.36/1</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Галицька, 36, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D147" s="3" t="n">
+        <v>48.93182609999999</v>
+      </c>
+      <c r="E147" s="3" t="n">
+        <v>24.70814</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>100370000001436</v>
+      </c>
+      <c r="B148" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ,вул.Вовчинецька,167,пр.7,Магазин</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Вовчинецька, 167, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D148" s="3" t="n">
+        <v>48.933318</v>
+      </c>
+      <c r="E148" s="3" t="n">
+        <v>24.7300483</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>100370000001472</v>
+      </c>
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ,вул.Вовчинецька,215/А,Магазин</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Вовчинецька, 215а, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="n">
+        <v>48.9360121</v>
+      </c>
+      <c r="E149" s="3" t="n">
+        <v>24.7341981</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>100370000001550</v>
+      </c>
+      <c r="B150" s="3" t="inlineStr">
+        <is>
+          <t>м.Галич,вул.Об'їздна,6,кафе"Вежа Галич"</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Об'їзна, 6, Тернопіль, Тернопільська область, Україна, 46000</t>
+        </is>
+      </c>
+      <c r="D150" s="3" t="n">
+        <v>49.53311069999999</v>
+      </c>
+      <c r="E150" s="3" t="n">
+        <v>25.6251863</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>100370000001660</v>
+      </c>
+      <c r="B151" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ,вул.Довженка,3/78,Магазин</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Олександра Довженка, 3, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D151" s="3" t="n">
+        <v>48.9030706</v>
+      </c>
+      <c r="E151" s="3" t="n">
+        <v>24.6948909</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>100370000001716</v>
+      </c>
+      <c r="B152" s="3" t="inlineStr">
+        <is>
+          <t>м.Косів,провулок Шевченка,2А,маг"Старий друже" хорека</t>
+        </is>
+      </c>
+      <c r="C152" s="3" t="inlineStr">
+        <is>
+          <t>провулок Шевченка, 2А, Косів, Івано-Франківська область, Україна, 78600</t>
+        </is>
+      </c>
+      <c r="D152" s="3" t="n">
+        <v>48.320954</v>
+      </c>
+      <c r="E152" s="3" t="n">
+        <v>25.1049721</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>100370000001797</v>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>Калуський р-н, с.Вістова,вул.Січових Стрільців,54, магазин"Господар"</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>Вістова, Івано-Франківська область, Україна, 77351</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="n">
+        <v>49.0270058</v>
+      </c>
+      <c r="E153" s="3" t="n">
+        <v>24.4710731</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>100370000001899</v>
+      </c>
+      <c r="B154" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ,вул.Українська,5,Магазин</t>
+        </is>
+      </c>
+      <c r="C154" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Українська, 5, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D154" s="3" t="n">
+        <v>48.9274763</v>
+      </c>
+      <c r="E154" s="3" t="n">
+        <v>24.7000327</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>100370000001935</v>
+      </c>
+      <c r="B155" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ,вул.Короля Данила,17,магазин"Франко маркет"</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Короля Данила, 17, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D155" s="3" t="n">
+        <v>48.92228129999999</v>
+      </c>
+      <c r="E155" s="3" t="n">
+        <v>24.6979246</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>100370000001979</v>
+      </c>
+      <c r="B156" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ, вул.Набережна ім.Стефаника, 42, ресторан</t>
+        </is>
+      </c>
+      <c r="C156" s="3" t="inlineStr">
+        <is>
+          <t>Набережна вулиця ім. Василя Стефаника, 42, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D156" s="3" t="n">
+        <v>48.9268192</v>
+      </c>
+      <c r="E156" s="3" t="n">
+        <v>24.6874653</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>100370000001992</v>
+      </c>
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ,вул.Короля Данила,14,Магазин</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Короля Данила, 14, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="n">
+        <v>48.9206994</v>
+      </c>
+      <c r="E157" s="3" t="n">
+        <v>24.7021118</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>100370000002009</v>
+      </c>
+      <c r="B158" s="3" t="inlineStr">
+        <is>
+          <t>м.Снятин, вул.Лотоцького, буд.16а</t>
+        </is>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Антіна Лотоцького, 16а, Снятин, Івано-Франківська область, Україна, 78301</t>
+        </is>
+      </c>
+      <c r="D158" s="3" t="n">
+        <v>48.4503597</v>
+      </c>
+      <c r="E158" s="3" t="n">
+        <v>25.5537748</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>100370000002026</v>
+      </c>
+      <c r="B159" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ, вул.Бельведерська, буд.52/2</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Бельведерська, 52, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D159" s="3" t="n">
+        <v>48.92514389999999</v>
+      </c>
+      <c r="E159" s="3" t="n">
+        <v>24.6978543</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>100370000002083</v>
+      </c>
+      <c r="B160" s="3" t="inlineStr">
+        <is>
+          <t>м. Івано Франківськ, вул. Привокзальна, буд. 24, прим. 3, Магазин</t>
+        </is>
+      </c>
+      <c r="C160" s="3" t="inlineStr">
+        <is>
+          <t>Привокзальна площа, 24, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D160" s="3" t="n">
+        <v>48.926764</v>
+      </c>
+      <c r="E160" s="3" t="n">
+        <v>24.721815</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>100370000002124</v>
+      </c>
+      <c r="B161" s="3" t="inlineStr">
+        <is>
+          <t>м. Івано-Франківськ, вул. Пулюя, буд. 18</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Пулюя, 18, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D161" s="3" t="n">
+        <v>48.93205039999999</v>
+      </c>
+      <c r="E161" s="3" t="n">
+        <v>24.6995114</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>100370000002149</v>
+      </c>
+      <c r="B162" s="3" t="inlineStr">
+        <is>
+          <t>смт Рожнів,вул.Небесної сотні.15а, Супермаркет "Наш край"</t>
+        </is>
+      </c>
+      <c r="C162" s="3" t="inlineStr">
+        <is>
+          <t>Рожнів, Івано-Франківська область, Україна, 78635</t>
+        </is>
+      </c>
+      <c r="D162" s="3" t="n">
+        <v>48.3667546</v>
+      </c>
+      <c r="E162" s="3" t="n">
+        <v>25.2298686</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>100370000002210</v>
+      </c>
+      <c r="B163" s="3" t="inlineStr">
+        <is>
+          <t>м. Тисмениця, вул. Галицька, буд. 20/А, Ресторан "Шуба-таун"</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Галицька, 20а, Тисмениця, Івано-Франківська область, Україна, 77400</t>
+        </is>
+      </c>
+      <c r="D163" s="3" t="n">
+        <v>48.9022952</v>
+      </c>
+      <c r="E163" s="3" t="n">
+        <v>24.8499494</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>100370000002275</v>
+      </c>
+      <c r="B164" s="3" t="inlineStr">
+        <is>
+          <t>с.Верхня Липиця,вул.Центральна,14/А,магазин-кафетерій"Мальва"</t>
+        </is>
+      </c>
+      <c r="C164" s="3" t="inlineStr">
+        <is>
+          <t>Верхня Липиця, Івано-Франківська область, Україна, 77043</t>
+        </is>
+      </c>
+      <c r="D164" s="3" t="n">
+        <v>49.35299879999999</v>
+      </c>
+      <c r="E164" s="3" t="n">
+        <v>24.7838844</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>100370000002402</v>
+      </c>
+      <c r="B165" s="3" t="inlineStr">
+        <is>
+          <t>м. Івано-Франківськ, вул. Військових Ветеранів, буд. 6, прим. 4, Магазин</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Військових Ветеранів, 6, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D165" s="3" t="n">
+        <v>48.9276568</v>
+      </c>
+      <c r="E165" s="3" t="n">
+        <v>24.7108039</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>100370000002413</v>
+      </c>
+      <c r="B166" s="3" t="inlineStr">
+        <is>
+          <t>м. Івано-Франківськ, вул. Незалежності, буд. 97/3, Магазин</t>
+        </is>
+      </c>
+      <c r="C166" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Незалежності, 97, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D166" s="3" t="n">
+        <v>48.918586</v>
+      </c>
+      <c r="E166" s="3" t="n">
+        <v>24.721533</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>100370000002466</v>
+      </c>
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>м.Тисмениця,вул.Галицька,буд.20Б,магазин</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Галицька, 20, Угринів, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D167" s="3" t="n">
+        <v>48.92266919999999</v>
+      </c>
+      <c r="E167" s="3" t="n">
+        <v>24.7096727</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>100370000002485</v>
+      </c>
+      <c r="B168" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ,вул.Гетьмана Мазепи,буд.173В,магазин</t>
+        </is>
+      </c>
+      <c r="C168" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Гетьмана Мазепи, 173в, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D168" s="3" t="n">
+        <v>48.907104</v>
+      </c>
+      <c r="E168" s="3" t="n">
+        <v>24.6859175</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>100370000002577</v>
+      </c>
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>М. ІВАНО-ФРАНКІВСЬК, вул. Сухомлинського, 4, корп.4, магазин</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Сухомлинського, 4, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="n">
+        <v>48.9040782</v>
+      </c>
+      <c r="E169" s="3" t="n">
+        <v>24.6895158</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>100370000002655</v>
+      </c>
+      <c r="B170" s="3" t="inlineStr">
+        <is>
+          <t>м.Коломия, вул.Бандери,13, магазин</t>
+        </is>
+      </c>
+      <c r="C170" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Степана Бандери, 13, Коломия, Івано-Франківська область, Україна, 78200</t>
+        </is>
+      </c>
+      <c r="D170" s="3" t="n">
+        <v>48.5287392</v>
+      </c>
+      <c r="E170" s="3" t="n">
+        <v>25.0554959</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>100370000002663</v>
+      </c>
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>Коломийський р-н,с.Гвіздець,вул.Франка,71, магазин"Маркет"</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr">
+        <is>
+          <t>Гвіздець, Івано-Франківська область, Україна</t>
+        </is>
+      </c>
+      <c r="D171" s="3" t="n">
+        <v>48.5768669</v>
+      </c>
+      <c r="E171" s="3" t="n">
+        <v>25.2828981</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>100370000002710</v>
+      </c>
+      <c r="B172" s="3" t="inlineStr">
+        <is>
+          <t>м.Коломия, вул.Січових Стрільців, 39, магазин</t>
+        </is>
+      </c>
+      <c r="C172" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Січових Стрільців, 39, Коломия, Івано-Франківська область, Україна, 78206</t>
+        </is>
+      </c>
+      <c r="D172" s="3" t="n">
+        <v>48.5345291</v>
+      </c>
+      <c r="E172" s="3" t="n">
+        <v>25.0527963</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>100370000002764</v>
+      </c>
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>м.Коломия, вул.Леонтовича, 4, магазин</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
+        <is>
+          <t>Леонтовича, 4А, Коломия, Івано-Франківська область, Україна, 78203</t>
+        </is>
+      </c>
+      <c r="D173" s="3" t="n">
+        <v>48.5426502</v>
+      </c>
+      <c r="E173" s="3" t="n">
+        <v>25.0395944</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>100370000002887</v>
+      </c>
+      <c r="B174" s="3" t="inlineStr">
+        <is>
+          <t>м.Калуш,вул.Коновальця,6,магазин"Наш Край"</t>
+        </is>
+      </c>
+      <c r="C174" s="3" t="inlineStr">
+        <is>
+          <t>м, вулиця Євгена Коновальця, 6, Калуш, Івано-Франківська область, Україна, 77300</t>
+        </is>
+      </c>
+      <c r="D174" s="3" t="n">
+        <v>49.04033279999999</v>
+      </c>
+      <c r="E174" s="3" t="n">
+        <v>24.3489208</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>100370000002914</v>
+      </c>
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ, вул.Шпитальна, 1, магазин</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Шпитальна, 1, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="n">
+        <v>48.9247083</v>
+      </c>
+      <c r="E175" s="3" t="n">
+        <v>24.7118919</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>100370000002977</v>
+      </c>
+      <c r="B176" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ, вул.Вовчинецька, 198, магазин</t>
+        </is>
+      </c>
+      <c r="C176" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Вовчинецька, 198, Вовчинець, Івано-Франківська область, Україна, 76006</t>
+        </is>
+      </c>
+      <c r="D176" s="3" t="n">
+        <v>48.9409405</v>
+      </c>
+      <c r="E176" s="3" t="n">
+        <v>24.7409687</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>100370000003236</v>
+      </c>
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>Калуський р-н, с.Ріп"янка, вул.Франка, 13, магазин-кафе "Баштан"</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
+        <is>
+          <t>Ріп'янка, Івано-Франківська область, Україна, 77354</t>
+        </is>
+      </c>
+      <c r="D177" s="3" t="n">
+        <v>48.9939326</v>
+      </c>
+      <c r="E177" s="3" t="n">
+        <v>24.4810536</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>100370000003246</v>
+      </c>
+      <c r="B178" s="3" t="inlineStr">
+        <is>
+          <t>Косівський р-н, с.Соколівка, присілок Центр, 85/А магазин "Наш край"</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="inlineStr">
+        <is>
+          <t>Соколівка, Івано-Франківська область, Україна, 78650</t>
+        </is>
+      </c>
+      <c r="D178" s="3" t="n">
+        <v>48.2935649</v>
+      </c>
+      <c r="E178" s="3" t="n">
+        <v>25.0023289</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>100370000003285</v>
+      </c>
+      <c r="B179" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ, вул.Миколайчука, 14а, магазин</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Івана Миколайчука, 14, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D179" s="3" t="n">
+        <v>48.936175</v>
+      </c>
+      <c r="E179" s="3" t="n">
+        <v>24.7490929</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>100370000003286</v>
+      </c>
+      <c r="B180" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ, вул.Юності, 1, магазин</t>
+        </is>
+      </c>
+      <c r="C180" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Юності, 1, Микитинці, Івано-Франківська область, Україна, 76494</t>
+        </is>
+      </c>
+      <c r="D180" s="3" t="n">
+        <v>48.9108779</v>
+      </c>
+      <c r="E180" s="3" t="n">
+        <v>24.7646626</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>100370000003489</v>
+      </c>
+      <c r="B181" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ, вул.Петлюри, 1, магазин</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Симона Петлюри, 1, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D181" s="3" t="n">
+        <v>48.9035337</v>
+      </c>
+      <c r="E181" s="3" t="n">
+        <v>24.699012</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>100370000003496</v>
+      </c>
+      <c r="B182" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ, вул.Красівського, 1, магазин</t>
+        </is>
+      </c>
+      <c r="C182" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Красівського, 1, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D182" s="3" t="n">
+        <v>48.9165026</v>
+      </c>
+      <c r="E182" s="3" t="n">
+        <v>24.7237354</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>100370000003497</v>
+      </c>
+      <c r="B183" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ, вул.Північний Бульвар, 4а, магазин</t>
+        </is>
+      </c>
+      <c r="C183" s="3" t="inlineStr">
+        <is>
+          <t>Північний бульвар, 4А, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D183" s="3" t="n">
+        <v>48.9289448</v>
+      </c>
+      <c r="E183" s="3" t="n">
+        <v>24.7052442</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>100370000003498</v>
+      </c>
+      <c r="B184" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ, вул.Чорновола, 79, магазин</t>
+        </is>
+      </c>
+      <c r="C184" s="3" t="inlineStr">
+        <is>
+          <t>вулиця В'ячеслава Чорновола, 79, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D184" s="3" t="n">
+        <v>48.9135082</v>
+      </c>
+      <c r="E184" s="3" t="n">
+        <v>24.701156</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>100370000003726</v>
+      </c>
+      <c r="B185" s="3" t="inlineStr">
+        <is>
+          <t>м. Івано-Франківськ, вул. Довженка, 14 магазин "Крамниця продуктів"</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Олександра Довженка, 14, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D185" s="3" t="n">
+        <v>48.9046418</v>
+      </c>
+      <c r="E185" s="3" t="n">
+        <v>24.6851439</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>100370000003933</v>
+      </c>
+      <c r="B186" s="3" t="inlineStr">
+        <is>
+          <t>м. Івано-Франківськ, вул. Коновальця, 291, магазин "Крамниця продуктів"</t>
+        </is>
+      </c>
+      <c r="C186" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Євгена Коновальця, 291, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D186" s="3" t="n">
+        <v>48.888087</v>
+      </c>
+      <c r="E186" s="3" t="n">
+        <v>24.712479</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>100370000004164</v>
+      </c>
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>м. Івано-Франківськ, вул. Коновальця Євгена, буд.291-а</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Євгена Коновальця, 291а, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D187" s="3" t="n">
+        <v>48.8880322</v>
+      </c>
+      <c r="E187" s="3" t="n">
+        <v>24.711949</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>100370000004165</v>
+      </c>
+      <c r="B188" s="3" t="inlineStr">
+        <is>
+          <t>Івано-Франківськ, вул. Незалежності, буд.148а, прим.135</t>
+        </is>
+      </c>
+      <c r="C188" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Незалежності, 148А, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D188" s="3" t="n">
+        <v>48.91605000000001</v>
+      </c>
+      <c r="E188" s="3" t="n">
+        <v>24.73275</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>100370000004166</v>
+      </c>
+      <c r="B189" s="3" t="inlineStr">
+        <is>
+          <t>Івано-Франківськ, вул. Стрільців Січових, буд.52</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Січових стрільців, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D189" s="3" t="n">
+        <v>48.9189676</v>
+      </c>
+      <c r="E189" s="3" t="n">
+        <v>24.7099564</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>100370000004167</v>
+      </c>
+      <c r="B190" s="3" t="inlineStr">
+        <is>
+          <t>Івано-Франківськ, вул. Сорохтея О., буд.32, прим.LXVI</t>
+        </is>
+      </c>
+      <c r="C190" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Сорохтея, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D190" s="3" t="n">
+        <v>48.9037842</v>
+      </c>
+      <c r="E190" s="3" t="n">
+        <v>24.7057137</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>100370000004168</v>
+      </c>
+      <c r="B191" s="3" t="inlineStr">
+        <is>
+          <t>Івано-Франківськ, вул. Стуса Василя, буд.38, прим.172</t>
+        </is>
+      </c>
+      <c r="C191" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Василя Стуса, 38, Івано-Франківськ, Івано-Франківська область, Україна, 76006</t>
+        </is>
+      </c>
+      <c r="D191" s="3" t="n">
+        <v>48.932825</v>
+      </c>
+      <c r="E191" s="3" t="n">
+        <v>24.7493601</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>100370000004169</v>
+      </c>
+      <c r="B192" s="3" t="inlineStr">
+        <is>
+          <t>Ів.-Фр. обл., м. Коломия, вул. Січових Стрільців, буд.38/54</t>
+        </is>
+      </c>
+      <c r="C192" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Січових Стрільців, 38, Коломия, Івано-Франківська область, Україна, 78200</t>
+        </is>
+      </c>
+      <c r="D192" s="3" t="n">
+        <v>48.532515</v>
+      </c>
+      <c r="E192" s="3" t="n">
+        <v>25.0495401</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>100370000004242</v>
+      </c>
+      <c r="B193" s="3" t="inlineStr">
+        <is>
+          <t>м.Рогатин, вул.Галицька, 58, магазин "Асорті"</t>
+        </is>
+      </c>
+      <c r="C193" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Галицька, 58, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D193" s="3" t="n">
+        <v>48.93380940000001</v>
+      </c>
+      <c r="E193" s="3" t="n">
+        <v>24.7072982</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>100370000004243</v>
+      </c>
+      <c r="B194" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ, с.Вовчинець, вул.Шевченка, 113, магазин "Віскі"</t>
+        </is>
+      </c>
+      <c r="C194" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Шевченка, 113, Братківці, Івано-Франківська область, Україна, 77462</t>
+        </is>
+      </c>
+      <c r="D194" s="3" t="n">
+        <v>48.9131124</v>
+      </c>
+      <c r="E194" s="3" t="n">
+        <v>24.6981512</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>100370000004245</v>
+      </c>
+      <c r="B195" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ, вул.Коновальця 22, магазин-кафе "Домашній кошик"</t>
+        </is>
+      </c>
+      <c r="C195" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Євгена Коновальця, 22, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D195" s="3" t="n">
+        <v>48.9173971</v>
+      </c>
+      <c r="E195" s="3" t="n">
+        <v>24.7103572</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>100370000004246</v>
+      </c>
+      <c r="B196" s="3" t="inlineStr">
+        <is>
+          <t>м.Івано-Франківськ, вул.Шашкевича, 5, магазин "Продукти"</t>
+        </is>
+      </c>
+      <c r="C196" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Шашкевича, 5, Івано-Франківськ, Івано-Франківська область, Україна, 76000</t>
+        </is>
+      </c>
+      <c r="D196" s="3" t="n">
+        <v>48.91926549999999</v>
+      </c>
+      <c r="E196" s="3" t="n">
+        <v>24.7118935</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>100380000008560</v>
+      </c>
+      <c r="B197" s="3" t="inlineStr">
+        <is>
+          <t>Львів,вул. Конотопська</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Конотопська, Львів, Львівська область, Україна, 79000</t>
+        </is>
+      </c>
+      <c r="D197" s="3" t="n">
+        <v>49.8279872</v>
+      </c>
+      <c r="E197" s="3" t="n">
+        <v>24.0023097</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>100380000008571</v>
+      </c>
+      <c r="B198" s="3" t="inlineStr">
+        <is>
+          <t>Драгобрат</t>
+        </is>
+      </c>
+      <c r="C198" s="3" t="inlineStr">
+        <is>
+          <t>Драгобрат, Закарпатська область, Україна, 90630</t>
+        </is>
+      </c>
+      <c r="D198" s="3" t="n">
+        <v>48.249586</v>
+      </c>
+      <c r="E198" s="3" t="n">
+        <v>24.249591</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>100380000008596</v>
+      </c>
+      <c r="B199" s="3" t="inlineStr">
+        <is>
+          <t>м.Золочів, вул.Січових Стрільців, 17 Б</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Січових Стрільців, 17а, Золочів, Львівська область, Україна, 80700</t>
+        </is>
+      </c>
+      <c r="D199" s="3" t="n">
+        <v>49.80253769999999</v>
+      </c>
+      <c r="E199" s="3" t="n">
+        <v>24.8986781</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>100380000008597</v>
+      </c>
+      <c r="B200" s="3" t="inlineStr">
+        <is>
+          <t>смт.Брюховичі, вул.Івасюка, 1 Г</t>
+        </is>
+      </c>
+      <c r="C200" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Володимира Івасюка, 1, Брюховичі, Львівська область, Україна, 79491</t>
+        </is>
+      </c>
+      <c r="D200" s="3" t="n">
+        <v>49.901765</v>
+      </c>
+      <c r="E200" s="3" t="n">
+        <v>23.941277</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>100380000008599</v>
+      </c>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>м.Золочів, вул.Січових Стрільців, 38А</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Січових Стрільців, 38, Львівська область, Україна</t>
+        </is>
+      </c>
+      <c r="D201" s="3" t="n">
+        <v>49.79297560000001</v>
+      </c>
+      <c r="E201" s="3" t="n">
+        <v>24.8930838</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>100400000003982</v>
+      </c>
+      <c r="B202" s="3" t="inlineStr">
+        <is>
+          <t>с.Валки, ул.Харьковская, д.105а</t>
+        </is>
+      </c>
+      <c r="C202" s="3" t="inlineStr">
+        <is>
+          <t>Валки, Харківська область, Україна, 63002</t>
+        </is>
+      </c>
+      <c r="D202" s="3" t="n">
+        <v>49.8387221</v>
+      </c>
+      <c r="E202" s="3" t="n">
+        <v>35.6206178</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>100400000008869</v>
+      </c>
+      <c r="B203" s="3" t="inlineStr">
+        <is>
+          <t>Валки Советской Армии, ул 4 а</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="inlineStr">
+        <is>
+          <t>Валки, Харківська область, Україна, 63002</t>
+        </is>
+      </c>
+      <c r="D203" s="3" t="n">
+        <v>49.8387221</v>
+      </c>
+      <c r="E203" s="3" t="n">
+        <v>35.6206178</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>100400000010218</v>
+      </c>
+      <c r="B204" s="3" t="inlineStr">
+        <is>
+          <t>г.Люботин, ул.Шмидта, 56, Павильон.</t>
+        </is>
+      </c>
+      <c r="C204" s="3" t="inlineStr">
+        <is>
+          <t>вул. Шмідта, Люботин, Харківська область, Україна, 62434</t>
+        </is>
+      </c>
+      <c r="D204" s="3" t="n">
+        <v>49.95137</v>
+      </c>
+      <c r="E204" s="3" t="n">
+        <v>35.941437</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>100400000010224</v>
+      </c>
+      <c r="B205" s="3" t="inlineStr">
+        <is>
+          <t>г.Харьков, ул.Морозова, 11, Склад</t>
+        </is>
+      </c>
+      <c r="C205" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Морозова, 11, Харків, Харківська область, Україна, 61000</t>
+        </is>
+      </c>
+      <c r="D205" s="3" t="n">
+        <v>49.9607246</v>
+      </c>
+      <c r="E205" s="3" t="n">
+        <v>36.2852159</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>100430000002496</v>
+      </c>
+      <c r="B206" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">с.Клепачи Леся українка 2  </t>
+        </is>
+      </c>
+      <c r="C206" s="3" t="inlineStr">
+        <is>
+          <t>Клепачі, Хмельницька область, Україна, 30036</t>
+        </is>
+      </c>
+      <c r="D206" s="3" t="n">
+        <v>50.4926629</v>
+      </c>
+      <c r="E206" s="3" t="n">
+        <v>26.9564396</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>100430000002497</v>
+      </c>
+      <c r="B207" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">с.Шишаки Шевченка 31 </t>
+        </is>
+      </c>
+      <c r="C207" s="3" t="inlineStr">
+        <is>
+          <t>Шишаки, Полтавська область, Україна</t>
+        </is>
+      </c>
+      <c r="D207" s="3" t="n">
+        <v>49.883255</v>
+      </c>
+      <c r="E207" s="3" t="n">
+        <v>34.0040405</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>100430000002499</v>
+      </c>
+      <c r="B208" s="3" t="inlineStr">
+        <is>
+          <t>с. Клепачи ул перемоги</t>
+        </is>
+      </c>
+      <c r="C208" s="3" t="inlineStr">
+        <is>
+          <t>Клепачі, Хмельницька область, Україна, 30036</t>
+        </is>
+      </c>
+      <c r="D208" s="3" t="n">
+        <v>50.4926629</v>
+      </c>
+      <c r="E208" s="3" t="n">
+        <v>26.9564396</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>100510000000889</v>
+      </c>
+      <c r="B209" s="3" t="inlineStr">
+        <is>
+          <t>смт Новгородка, Новгородківський район, вулиця Дзержинського, 89 магазин № 5</t>
+        </is>
+      </c>
+      <c r="C209" s="3" t="inlineStr">
+        <is>
+          <t>Новгородка, Кіровоградська область, Україна, 28201</t>
+        </is>
+      </c>
+      <c r="D209" s="3" t="n">
+        <v>48.3554343</v>
+      </c>
+      <c r="E209" s="3" t="n">
+        <v>32.651758</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>100510000001442</v>
+      </c>
+      <c r="B210" s="3" t="inlineStr">
+        <is>
+          <t>с. Торговиця вул. Сагайдачного 1Б</t>
+        </is>
+      </c>
+      <c r="C210" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Сагайдачного, 1, Торговиця, Івано-Франківська область, Україна, 78161</t>
+        </is>
+      </c>
+      <c r="D210" s="3" t="n">
+        <v>48.5937069</v>
+      </c>
+      <c r="E210" s="3" t="n">
+        <v>25.4480197</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>100510000002949</v>
+      </c>
+      <c r="B211" s="3" t="inlineStr">
+        <is>
+          <t>с. Попiвка, Онуфрiївський район, вулиця Молодiжна, 19-Б, магазин "Околиця"</t>
+        </is>
+      </c>
+      <c r="C211" s="3" t="inlineStr">
+        <is>
+          <t>Попівка, Кіровоградська область, Україна, 28104</t>
+        </is>
+      </c>
+      <c r="D211" s="3" t="n">
+        <v>48.911387</v>
+      </c>
+      <c r="E211" s="3" t="n">
+        <v>33.517805</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>100510000004460</v>
+      </c>
+      <c r="B212" s="3" t="inlineStr">
+        <is>
+          <t>с.Братолюбiвка, вул.Транспортна, буд.10</t>
+        </is>
+      </c>
+      <c r="C212" s="3" t="inlineStr">
+        <is>
+          <t>вул. Транспортна, Братолюбівка, Кіровоградська область, Україна, 28512</t>
+        </is>
+      </c>
+      <c r="D212" s="3" t="n">
+        <v>48.2105188</v>
+      </c>
+      <c r="E212" s="3" t="n">
+        <v>32.9555185</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>100510000004471</v>
+      </c>
+      <c r="B213" s="3" t="inlineStr">
+        <is>
+          <t>с. Плетений Ташлик, вулиця Центральна, 35 А магазин "Копiлка",, Маловискiвський район</t>
+        </is>
+      </c>
+      <c r="C213" s="3" t="inlineStr">
+        <is>
+          <t>Плетений Ташлик, Кіровоградська область, Україна, 26245</t>
+        </is>
+      </c>
+      <c r="D213" s="3" t="n">
+        <v>48.4787237</v>
+      </c>
+      <c r="E213" s="3" t="n">
+        <v>31.669174</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>100510000004474</v>
+      </c>
+      <c r="B214" s="3" t="inlineStr">
+        <is>
+          <t>с. Глодоси, вул. Центральна 20 ,Новоукраїнський район</t>
+        </is>
+      </c>
+      <c r="C214" s="3" t="inlineStr">
+        <is>
+          <t>Глодоси, Кіровоградська область, Україна, 27110</t>
+        </is>
+      </c>
+      <c r="D214" s="3" t="n">
+        <v>48.4588086</v>
+      </c>
+      <c r="E214" s="3" t="n">
+        <v>31.3249519</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>100690000003043</v>
+      </c>
+      <c r="B215" s="3" t="inlineStr">
+        <is>
+          <t>вул. Галаська, 9, с. Великі Лучки,</t>
+        </is>
+      </c>
+      <c r="C215" s="3" t="inlineStr">
+        <is>
+          <t>Великі Лучки, Закарпатська область, Україна, 89625</t>
+        </is>
+      </c>
+      <c r="D215" s="3" t="n">
+        <v>48.4199587</v>
+      </c>
+      <c r="E215" s="3" t="n">
+        <v>22.5614331</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>100690000003045</v>
+      </c>
+      <c r="B216" s="3" t="inlineStr">
+        <is>
+          <t>пл. Народна, 19, м. Перечин</t>
+        </is>
+      </c>
+      <c r="C216" s="3" t="inlineStr">
+        <is>
+          <t>площа Народна, 19, Закарпатська область, Україна</t>
+        </is>
+      </c>
+      <c r="D216" s="3" t="n">
+        <v>48.5894067</v>
+      </c>
+      <c r="E216" s="3" t="n">
+        <v>22.2568458</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>100760000001147</v>
+      </c>
+      <c r="B217" s="3" t="inlineStr">
+        <is>
+          <t>Синельникове,Олександра Матросова,34,</t>
+        </is>
+      </c>
+      <c r="C217" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Матросова, 34, Синельникове, Дніпропетровська область, Україна, 52500</t>
+        </is>
+      </c>
+      <c r="D217" s="3" t="n">
+        <v>48.31135459999999</v>
+      </c>
+      <c r="E217" s="3" t="n">
+        <v>35.5343465</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>100760000002640</v>
+      </c>
+      <c r="B218" s="3" t="inlineStr">
+        <is>
+          <t>Синельникове,Локомотивна,25,</t>
+        </is>
+      </c>
+      <c r="C218" s="3" t="inlineStr">
+        <is>
+          <t>Синельникове, Дніпропетровська область, Україна</t>
+        </is>
+      </c>
+      <c r="D218" s="3" t="n">
+        <v>48.3229038</v>
+      </c>
+      <c r="E218" s="3" t="n">
+        <v>35.521396</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>100760000006208</v>
+      </c>
+      <c r="B219" s="3" t="inlineStr">
+        <is>
+          <t>Синельниково Гоголя 30</t>
+        </is>
+      </c>
+      <c r="C219" s="3" t="inlineStr">
+        <is>
+          <t>Синельникове, Дніпропетровська область, Україна</t>
+        </is>
+      </c>
+      <c r="D219" s="3" t="n">
+        <v>48.3229038</v>
+      </c>
+      <c r="E219" s="3" t="n">
+        <v>35.521396</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>100760000007087</v>
+      </c>
+      <c r="B220" s="3" t="inlineStr">
+        <is>
+          <t>с.Шевське, вул.Гагаріна, буд.35</t>
+        </is>
+      </c>
+      <c r="C220" s="3" t="inlineStr">
+        <is>
+          <t>Шевське, Дніпропетровська область, Україна, 51131</t>
+        </is>
+      </c>
+      <c r="D220" s="3" t="n">
+        <v>48.9954018</v>
+      </c>
+      <c r="E220" s="3" t="n">
+        <v>34.9229816</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>100760000007261</v>
+      </c>
+      <c r="B221" s="3" t="inlineStr">
+        <is>
+          <t>ТЕРНІВКА , ул.МАЯКОВСЬКОГО , 25</t>
+        </is>
+      </c>
+      <c r="C221" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Маяковського, 25, Тернівка, Дніпропетровська область, Україна, 51500</t>
+        </is>
+      </c>
+      <c r="D221" s="3" t="n">
+        <v>48.5304788</v>
+      </c>
+      <c r="E221" s="3" t="n">
+        <v>36.0779027</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>100760000007414</v>
+      </c>
+      <c r="B222" s="3" t="inlineStr">
+        <is>
+          <t>ГУБІНІХА БЕРЕГОВОГО 32 Г</t>
+        </is>
+      </c>
+      <c r="C222" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Берегового, 32, Губиниха, Дніпропетровська область, Україна, 51250</t>
+        </is>
+      </c>
+      <c r="D222" s="3" t="n">
+        <v>48.802784</v>
+      </c>
+      <c r="E222" s="3" t="n">
+        <v>35.2759744</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>100760000007446</v>
+      </c>
+      <c r="B223" s="3" t="inlineStr">
+        <is>
+          <t>м. Дніпро, вул. Саранская, 95</t>
+        </is>
+      </c>
+      <c r="C223" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Саранська, 95, Дніпро, Дніпропетровська область, Україна, 49000</t>
+        </is>
+      </c>
+      <c r="D223" s="3" t="n">
+        <v>48.5108305</v>
+      </c>
+      <c r="E223" s="3" t="n">
+        <v>35.0022884</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>100760000007447</v>
+      </c>
+      <c r="B224" s="3" t="inlineStr">
+        <is>
+          <t>Дніпро Саранская 95</t>
+        </is>
+      </c>
+      <c r="C224" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Саранська, 95, Дніпро, Дніпропетровська область, Україна, 49000</t>
+        </is>
+      </c>
+      <c r="D224" s="3" t="n">
+        <v>48.5108305</v>
+      </c>
+      <c r="E224" s="3" t="n">
+        <v>35.0022884</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>100760000007448</v>
+      </c>
+      <c r="B225" s="3" t="inlineStr">
+        <is>
+          <t>Дніпро Саранская 95</t>
+        </is>
+      </c>
+      <c r="C225" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Саранська, 95, Дніпро, Дніпропетровська область, Україна, 49000</t>
+        </is>
+      </c>
+      <c r="D225" s="3" t="n">
+        <v>48.5108305</v>
+      </c>
+      <c r="E225" s="3" t="n">
+        <v>35.0022884</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>100760000007449</v>
+      </c>
+      <c r="B226" s="3" t="inlineStr">
+        <is>
+          <t>мДніпро , вул.Гладкого 25</t>
+        </is>
+      </c>
+      <c r="C226" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Гладкова, 25, Дніпро, Дніпропетровська область, Україна, 49000</t>
+        </is>
+      </c>
+      <c r="D226" s="3" t="n">
+        <v>48.4061779</v>
+      </c>
+      <c r="E226" s="3" t="n">
+        <v>35.0042163</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>100760000007451</v>
+      </c>
+      <c r="B227" s="3" t="inlineStr">
+        <is>
+          <t>с.Котовка, вул.Базарна, буд.1а</t>
+        </is>
+      </c>
+      <c r="C227" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Базарна, 1а, Львів, Львівська область, Україна, 79000</t>
+        </is>
+      </c>
+      <c r="D227" s="3" t="n">
+        <v>49.8452597</v>
+      </c>
+      <c r="E227" s="3" t="n">
+        <v>24.0201087</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>100800000000133</v>
+      </c>
+      <c r="B228" s="3" t="inlineStr">
+        <is>
+          <t>с.Покровка, р-н Коломакский, вул. Молодіжна, буд.8</t>
+        </is>
+      </c>
+      <c r="C228" s="3" t="inlineStr">
+        <is>
+          <t>Покровка, Приморский край, Росія, 692561</t>
+        </is>
+      </c>
+      <c r="D228" s="3" t="n">
+        <v>43.9547041</v>
+      </c>
+      <c r="E228" s="3" t="n">
+        <v>131.6342013</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>100800000005035</v>
+      </c>
+      <c r="B229" s="3" t="inlineStr">
+        <is>
+          <t>м. Чугуїв, вул. Соснова, 1 А</t>
+        </is>
+      </c>
+      <c r="C229" s="3" t="inlineStr">
+        <is>
+          <t>Чугуїв, Харківська область, Україна, 63500</t>
+        </is>
+      </c>
+      <c r="D229" s="3" t="n">
+        <v>49.8363158</v>
+      </c>
+      <c r="E229" s="3" t="n">
+        <v>36.6813122</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>100800000006686</v>
+      </c>
+      <c r="B230" s="3" t="inlineStr">
+        <is>
+          <t>№279,Харківська обл.,Харківський р-н,Харків,Валентинівська,38</t>
+        </is>
+      </c>
+      <c r="C230" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Валентинівська, 38, Харків, Харківська область, Україна, 61000</t>
+        </is>
+      </c>
+      <c r="D230" s="3" t="n">
+        <v>50.009193</v>
+      </c>
+      <c r="E230" s="3" t="n">
+        <v>36.3525919</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>100800000006692</v>
+      </c>
+      <c r="B231" s="3" t="inlineStr">
+        <is>
+          <t>№694,Харківська обл.,Харківський р-н,смт. Пісочин,Полтавське шосе,6</t>
+        </is>
+      </c>
+      <c r="C231" s="3" t="inlineStr">
+        <is>
+          <t>Полтавське шосе, 6, Пісочин, Харківська область, Україна, 62416</t>
+        </is>
+      </c>
+      <c r="D231" s="3" t="n">
+        <v>49.95715939999999</v>
+      </c>
+      <c r="E231" s="3" t="n">
+        <v>36.0872156</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>100830000001184</v>
+      </c>
+      <c r="B232" s="3" t="inlineStr">
+        <is>
+          <t>м. Первомайськ вул.  Олекси Гірника ( в прошлом Свердлова )2 Продукти</t>
+        </is>
+      </c>
+      <c r="C232" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Олекси Гірника, Первомайськ, Миколаївська область, Україна, 55200</t>
+        </is>
+      </c>
+      <c r="D232" s="3" t="n">
+        <v>48.0323261</v>
+      </c>
+      <c r="E232" s="3" t="n">
+        <v>30.8647305</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>100830000001898</v>
+      </c>
+      <c r="B233" s="3" t="inlineStr">
+        <is>
+          <t>с.Садовое, вул.Мира, 26 на дому</t>
+        </is>
+      </c>
+      <c r="C233" s="3" t="inlineStr">
+        <is>
+          <t>вул. Миру, Садове, Миколаївська область, Україна, 55312</t>
+        </is>
+      </c>
+      <c r="D233" s="3" t="n">
+        <v>47.9558698</v>
+      </c>
+      <c r="E233" s="3" t="n">
+        <v>31.2592778</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>100830000002002</v>
+      </c>
+      <c r="B234" s="3" t="inlineStr">
+        <is>
+          <t>с.Мала Мечетня, вул.Центральна, 100, КО р-н</t>
+        </is>
+      </c>
+      <c r="C234" s="3" t="inlineStr">
+        <is>
+          <t>Мала Мечетня, Миколаївська область, Україна, 55122</t>
+        </is>
+      </c>
+      <c r="D234" s="3" t="n">
+        <v>48.1299191</v>
+      </c>
+      <c r="E234" s="3" t="n">
+        <v>30.4290771</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>100870000010142</v>
+      </c>
+      <c r="B235" s="3" t="inlineStr">
+        <is>
+          <t>с. Холодна Балка, вул. Санаторна буд.123, Біляївський район</t>
+        </is>
+      </c>
+      <c r="C235" s="3" t="inlineStr">
+        <is>
+          <t>Холодна Балка, Одеська область, Україна, 67660</t>
+        </is>
+      </c>
+      <c r="D235" s="3" t="n">
+        <v>46.6074038</v>
+      </c>
+      <c r="E235" s="3" t="n">
+        <v>30.5851521</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>100870000010158</v>
+      </c>
+      <c r="B236" s="3" t="inlineStr">
+        <is>
+          <t>с.Усатово, пер.Водопьянова, б.46А</t>
+        </is>
+      </c>
+      <c r="C236" s="3" t="inlineStr">
+        <is>
+          <t>Усатове, Одеська область, Україна, 67663</t>
+        </is>
+      </c>
+      <c r="D236" s="3" t="n">
+        <v>46.5328668</v>
+      </c>
+      <c r="E236" s="3" t="n">
+        <v>30.6579315</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>100870000010163</v>
+      </c>
+      <c r="B237" s="3" t="inlineStr">
+        <is>
+          <t>Одеський р-н с. Першотравневе вул. Степова буд.29</t>
+        </is>
+      </c>
+      <c r="C237" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Степова, Першотравневе, Одеська область, Україна, 67541</t>
+        </is>
+      </c>
+      <c r="D237" s="3" t="n">
+        <v>46.7412426</v>
+      </c>
+      <c r="E237" s="3" t="n">
+        <v>30.9226151</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>100880000003396</v>
+      </c>
+      <c r="B238" s="3" t="inlineStr">
+        <is>
+          <t>с.Степанки, вул.Шевченка  53</t>
+        </is>
+      </c>
+      <c r="C238" s="3" t="n"/>
+      <c r="D238" s="3" t="n"/>
+      <c r="E238" s="3" t="n"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>100880000003535</v>
+      </c>
+      <c r="B239" s="3" t="inlineStr">
+        <is>
+          <t>с.Хутір-Хмільна, вул.Миру, 53</t>
+        </is>
+      </c>
+      <c r="C239" s="3" t="inlineStr">
+        <is>
+          <t>Хутір-Хмільна, Черкаська область, Україна, 19026</t>
+        </is>
+      </c>
+      <c r="D239" s="3" t="n">
+        <v>49.6830028</v>
+      </c>
+      <c r="E239" s="3" t="n">
+        <v>31.5378745</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>100890000001569</v>
+      </c>
+      <c r="B240" s="3" t="inlineStr">
+        <is>
+          <t>м. Умань, вул Герцена, буд.42</t>
+        </is>
+      </c>
+      <c r="C240" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Герцена, 42, Умань, Черкаська область, Україна, 20300</t>
+        </is>
+      </c>
+      <c r="D240" s="3" t="n">
+        <v>48.7292542</v>
+      </c>
+      <c r="E240" s="3" t="n">
+        <v>30.2085128</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>100910000000807</v>
+      </c>
+      <c r="B241" s="3" t="inlineStr">
+        <is>
+          <t>вул.Березанський шлях 2/2</t>
+        </is>
+      </c>
+      <c r="C241" s="3" t="n"/>
+      <c r="D241" s="3" t="n"/>
+      <c r="E241" s="3" t="n"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>100910000004222</v>
+      </c>
+      <c r="B242" s="3" t="inlineStr">
+        <is>
+          <t>с. Єрківці, Ферапонтова 9</t>
+        </is>
+      </c>
+      <c r="C242" s="3" t="inlineStr">
+        <is>
+          <t>Єрківці, Київська обл., Україна, 08430</t>
+        </is>
+      </c>
+      <c r="D242" s="3" t="n">
+        <v>50.12063089999999</v>
+      </c>
+      <c r="E242" s="3" t="n">
+        <v>31.2580833</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>100910000004224</v>
+      </c>
+      <c r="B243" s="3" t="inlineStr">
+        <is>
+          <t>м.Бориспіль, вул.Банківська, буд.32</t>
+        </is>
+      </c>
+      <c r="C243" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Банківська, 32, Бориспіль, Київська обл., Україна, 08301</t>
+        </is>
+      </c>
+      <c r="D243" s="3" t="n">
+        <v>50.3585948</v>
+      </c>
+      <c r="E243" s="3" t="n">
+        <v>30.9489988</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>100980000000991</v>
+      </c>
+      <c r="B244" s="3" t="inlineStr">
+        <is>
+          <t>с,Кудашево ул Левобережная14 турбазаЖемчужина</t>
+        </is>
+      </c>
+      <c r="C244" s="3" t="inlineStr">
+        <is>
+          <t>Левобережная ул., 14, Москва, Росія, 125445</t>
+        </is>
+      </c>
+      <c r="D244" s="3" t="n">
+        <v>55.8780219</v>
+      </c>
+      <c r="E244" s="3" t="n">
+        <v>37.4678318</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>100980000001209</v>
+      </c>
+      <c r="B245" s="3" t="inlineStr">
+        <is>
+          <t>на кольце Даманского, возле павильона</t>
+        </is>
+      </c>
+      <c r="C245" s="3" t="inlineStr">
+        <is>
+          <t>Ostrov Damanskiy, Hulin, Jixi, Китай</t>
+        </is>
+      </c>
+      <c r="D245" s="3" t="n">
+        <v>46.48638889999999</v>
+      </c>
+      <c r="E245" s="3" t="n">
+        <v>133.845</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>100980000003132</v>
+      </c>
+      <c r="B246" s="3" t="inlineStr">
+        <is>
+          <t>напротив Филини РАБОТАЮТ С 12.00</t>
+        </is>
+      </c>
+      <c r="C246" s="3" t="n"/>
+      <c r="D246" s="3" t="n"/>
+      <c r="E246" s="3" t="n"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>101000000002666</v>
+      </c>
+      <c r="B247" s="3" t="inlineStr">
+        <is>
+          <t>с.Великі Будища, вул.Войтенко, буд.10а</t>
+        </is>
+      </c>
+      <c r="C247" s="3" t="inlineStr">
+        <is>
+          <t>Великі Будища, Полтавська область, Україна</t>
+        </is>
+      </c>
+      <c r="D247" s="3" t="n">
+        <v>49.8632924</v>
+      </c>
+      <c r="E247" s="3" t="n">
+        <v>34.5811455</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>101030000004990</v>
+      </c>
+      <c r="B248" s="3" t="inlineStr">
+        <is>
+          <t>с.Поліське, вул.Поліська, буд.1/а</t>
+        </is>
+      </c>
+      <c r="C248" s="3" t="n"/>
+      <c r="D248" s="3" t="n"/>
+      <c r="E248" s="3" t="n"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>101030000007477</v>
+      </c>
+      <c r="B249" s="3" t="inlineStr">
+        <is>
+          <t>с.Варварівка, вул.Рад, буд.7</t>
+        </is>
+      </c>
+      <c r="C249" s="3" t="n"/>
+      <c r="D249" s="3" t="n"/>
+      <c r="E249" s="3" t="n"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>101230000002321</v>
+      </c>
+      <c r="B250" s="3" t="inlineStr">
+        <is>
+          <t>с.Березівка, вул.Центральна,15</t>
+        </is>
+      </c>
+      <c r="C250" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Центральна, 15, Київ, Україна, 02055</t>
+        </is>
+      </c>
+      <c r="D250" s="3" t="n">
+        <v>50.3910259</v>
+      </c>
+      <c r="E250" s="3" t="n">
+        <v>30.6040133</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>101230000002322</v>
+      </c>
+      <c r="B251" s="3" t="inlineStr">
+        <is>
+          <t>с.Черемошне, вул.Студентська,3а</t>
+        </is>
+      </c>
+      <c r="C251" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Студентська, 3, Львів, Львівська область, Україна, 79000</t>
+        </is>
+      </c>
+      <c r="D251" s="3" t="n">
+        <v>49.83003</v>
+      </c>
+      <c r="E251" s="3" t="n">
+        <v>24.0466604</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>101230000003651</v>
+      </c>
+      <c r="B252" s="3" t="inlineStr">
+        <is>
+          <t>м.Бердичів, вул.Європейська, буд.5/7</t>
+        </is>
+      </c>
+      <c r="C252" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Європейська, 5/7, Бердичів, Житомирська область, Україна, 13300</t>
+        </is>
+      </c>
+      <c r="D252" s="3" t="n">
+        <v>49.8946654</v>
+      </c>
+      <c r="E252" s="3" t="n">
+        <v>28.581642</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>101260000001180</v>
+      </c>
+      <c r="B253" s="3" t="inlineStr">
+        <is>
+          <t>с.Капустяни, вул.Василя Горобця, буд.88, Транзит</t>
+        </is>
+      </c>
+      <c r="C253" s="3" t="inlineStr">
+        <is>
+          <t>Капустяни, Вінницька область, Україна, 24332</t>
+        </is>
+      </c>
+      <c r="D253" s="3" t="n">
+        <v>48.52475769999999</v>
+      </c>
+      <c r="E253" s="3" t="n">
+        <v>29.0322353</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>101260000001185</v>
+      </c>
+      <c r="B254" s="3" t="inlineStr">
+        <is>
+          <t>с. Клембівка, вул. Наконечного Віктора, 8/А АЗС</t>
+        </is>
+      </c>
+      <c r="C254" s="3" t="inlineStr">
+        <is>
+          <t>Клембівка, Вінницька область, Україна, 24532</t>
+        </is>
+      </c>
+      <c r="D254" s="3" t="n">
+        <v>48.3940341</v>
+      </c>
+      <c r="E254" s="3" t="n">
+        <v>28.4034797</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>101430000001144</v>
+      </c>
+      <c r="B255" s="3" t="inlineStr">
+        <is>
+          <t>с.Чечельник, вул.Центральна 15, Дунаєвецький р-н, магазин з кафетерієм</t>
+        </is>
+      </c>
+      <c r="C255" s="3" t="inlineStr">
+        <is>
+          <t>Чечельник, Хмельницька область, Україна, 32446</t>
+        </is>
+      </c>
+      <c r="D255" s="3" t="n">
+        <v>48.8360444</v>
+      </c>
+      <c r="E255" s="3" t="n">
+        <v>26.6465427</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>101430000002298</v>
+      </c>
+      <c r="B256" s="3" t="inlineStr">
+        <is>
+          <t>Кам'янець-Подільський р-н, с. Калиня, вул. Центральна, 3а</t>
+        </is>
+      </c>
+      <c r="C256" s="3" t="inlineStr">
+        <is>
+          <t>Калиня, Хмельницька область, Україна, 32354</t>
+        </is>
+      </c>
+      <c r="D256" s="3" t="n">
+        <v>48.6970542</v>
+      </c>
+      <c r="E256" s="3" t="n">
+        <v>26.7166431</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>101430000002299</v>
+      </c>
+      <c r="B257" s="3" t="inlineStr">
+        <is>
+          <t>Кам'янець-Подільський р-н, с. Калиня. вул. Центральна, 16</t>
+        </is>
+      </c>
+      <c r="C257" s="3" t="inlineStr">
+        <is>
+          <t>Калиня, Хмельницька область, Україна, 32354</t>
+        </is>
+      </c>
+      <c r="D257" s="3" t="n">
+        <v>48.6970542</v>
+      </c>
+      <c r="E257" s="3" t="n">
+        <v>26.7166431</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>101470000000468</v>
+      </c>
+      <c r="B258" s="3" t="inlineStr">
+        <is>
+          <t>с.Табаки вул.Северна, буд28</t>
+        </is>
+      </c>
+      <c r="C258" s="3" t="n"/>
+      <c r="D258" s="3" t="n"/>
+      <c r="E258" s="3" t="n"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>101490000006448</v>
+      </c>
+      <c r="B259" s="3" t="inlineStr">
+        <is>
+          <t>с.Рудка, Кременецький р-н, вул. Л.Українки, буд.12</t>
+        </is>
+      </c>
+      <c r="C259" s="3" t="inlineStr">
+        <is>
+          <t>Кременецький район, Тернопільська область, Україна</t>
+        </is>
+      </c>
+      <c r="D259" s="3" t="n">
+        <v>50.0349932</v>
+      </c>
+      <c r="E259" s="3" t="n">
+        <v>25.5940803</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>101490000006452</v>
+      </c>
+      <c r="B260" s="3" t="inlineStr">
+        <is>
+          <t>м.Тернопіль, вул.Бандери, буд.90</t>
+        </is>
+      </c>
+      <c r="C260" s="3" t="inlineStr">
+        <is>
+          <t>проспект Степана Бандери, 90, Тернопіль, Тернопільська область, Україна, 46000</t>
+        </is>
+      </c>
+      <c r="D260" s="3" t="n">
+        <v>49.54843</v>
+      </c>
+      <c r="E260" s="3" t="n">
+        <v>25.62733</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>101510000002134</v>
+      </c>
+      <c r="B261" s="3" t="inlineStr">
+        <is>
+          <t>с.Яцковичі, вул.Центральна</t>
+        </is>
+      </c>
+      <c r="C261" s="3" t="n"/>
+      <c r="D261" s="3" t="n"/>
+      <c r="E261" s="3" t="n"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>101510000009397</v>
+      </c>
+      <c r="B262" s="3" t="inlineStr">
+        <is>
+          <t>м.Рівне, вул.Генерала Безручка, буд.12</t>
+        </is>
+      </c>
+      <c r="C262" s="3" t="inlineStr">
+        <is>
+          <t>проспект Генерала Безручка, 12, Рівне, Рівненська область, Україна, 33000</t>
+        </is>
+      </c>
+      <c r="D262" s="3" t="n">
+        <v>50.6372256</v>
+      </c>
+      <c r="E262" s="3" t="n">
+        <v>26.2718927</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>101510000009929</v>
+      </c>
+      <c r="B263" s="3" t="inlineStr">
+        <is>
+          <t>с.Садки, вул.Шевченка, буд.34</t>
+        </is>
+      </c>
+      <c r="C263" s="3" t="n"/>
+      <c r="D263" s="3" t="n"/>
+      <c r="E263" s="3" t="n"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>101510000037954</v>
+      </c>
+      <c r="B264" s="3" t="inlineStr">
+        <is>
+          <t>м.Рівне, вул.Шухевича, буд.2</t>
+        </is>
+      </c>
+      <c r="C264" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Романа Шухевича, 2, Рівне, Рівненська область, Україна, 33000</t>
+        </is>
+      </c>
+      <c r="D264" s="3" t="n">
+        <v>50.6350828</v>
+      </c>
+      <c r="E264" s="3" t="n">
+        <v>26.2660139</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>101510000037956</v>
+      </c>
+      <c r="B265" s="3" t="inlineStr">
+        <is>
+          <t>м.Рівне, вул.Набережна, буд.24</t>
+        </is>
+      </c>
+      <c r="C265" s="3" t="inlineStr">
+        <is>
+          <t>Набережна вулиця, 24, Рівне, Рівненська область, Україна, 33000</t>
+        </is>
+      </c>
+      <c r="D265" s="3" t="n">
+        <v>50.626721</v>
+      </c>
+      <c r="E265" s="3" t="n">
+        <v>26.2455826</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>101510000037971</v>
+      </c>
+      <c r="B266" s="3" t="inlineStr">
+        <is>
+          <t>с.Федорівна, вул.Центральна, буд.19а</t>
+        </is>
+      </c>
+      <c r="C266" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Центральна, 19, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D266" s="3" t="n">
+        <v>50.3916451</v>
+      </c>
+      <c r="E266" s="3" t="n">
+        <v>30.6038341</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>101510000038000</v>
+      </c>
+      <c r="B267" s="3" t="inlineStr">
+        <is>
+          <t>с.Дядьковичі, вул.Козацький Шлях, буд.86</t>
+        </is>
+      </c>
+      <c r="C267" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Козацький шлях, 86, Дядьковичі, Рівненська область, Україна, 35361</t>
+        </is>
+      </c>
+      <c r="D267" s="3" t="n">
+        <v>50.5986139</v>
+      </c>
+      <c r="E267" s="3" t="n">
+        <v>26.0602229</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>101510000038011</v>
+      </c>
+      <c r="B268" s="3" t="inlineStr">
+        <is>
+          <t>м.Рівне, вул.Кн.Ольги, буд.15</t>
+        </is>
+      </c>
+      <c r="C268" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Княгині Ольги, 15, Рівне, Рівненська область, Україна, 33000</t>
+        </is>
+      </c>
+      <c r="D268" s="3" t="n">
+        <v>50.6133787</v>
+      </c>
+      <c r="E268" s="3" t="n">
+        <v>26.2641713</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>101530000003987</v>
+      </c>
+      <c r="B269" s="3" t="inlineStr">
+        <is>
+          <t>м.Чернігів,ул.Глєбова,31</t>
+        </is>
+      </c>
+      <c r="C269" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Глібова, 31, Чернігів, Чернігівська область, Україна, 14039</t>
+        </is>
+      </c>
+      <c r="D269" s="3" t="n">
+        <v>51.5101166</v>
+      </c>
+      <c r="E269" s="3" t="n">
+        <v>31.2429394</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>101530000005427</v>
+      </c>
+      <c r="B270" s="3" t="inlineStr">
+        <is>
+          <t>м.Чернiгiв,ул.Гагаріна,4/5</t>
+        </is>
+      </c>
+      <c r="C270" s="3" t="inlineStr">
+        <is>
+          <t>Чернігів, Чернігівська область, Україна, 14000</t>
+        </is>
+      </c>
+      <c r="D270" s="3" t="n">
+        <v>51.4982</v>
+      </c>
+      <c r="E270" s="3" t="n">
+        <v>31.28935</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>108660000011624</v>
+      </c>
+      <c r="B271" s="3" t="inlineStr">
+        <is>
+          <t>м. Київ, вул. Булаховського 3а</t>
+        </is>
+      </c>
+      <c r="C271" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Академіка Булаховського, 3а, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D271" s="3" t="n">
+        <v>50.4691492</v>
+      </c>
+      <c r="E271" s="3" t="n">
+        <v>30.3361545</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>108660000011625</v>
+      </c>
+      <c r="B272" s="3" t="inlineStr">
+        <is>
+          <t>вул. Володимира Івасюка, 39-в</t>
+        </is>
+      </c>
+      <c r="C272" s="3" t="n"/>
+      <c r="D272" s="3" t="n"/>
+      <c r="E272" s="3" t="n"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>108660000011626</v>
+      </c>
+      <c r="B273" s="3" t="inlineStr">
+        <is>
+          <t>с. Великий Бичків вул. Грушевського, 107</t>
+        </is>
+      </c>
+      <c r="C273" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Грушевського, 107, Великий Бичків, Закарпатська область, Україна, 90615</t>
+        </is>
+      </c>
+      <c r="D273" s="3" t="n">
+        <v>47.967344</v>
+      </c>
+      <c r="E273" s="3" t="n">
+        <v>24.0110939</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>108660000011627</v>
+      </c>
+      <c r="B274" s="3" t="inlineStr">
+        <is>
+          <t>смт. Солотвино, вул. Європейська, буд.14</t>
+        </is>
+      </c>
+      <c r="C274" s="3" t="inlineStr">
+        <is>
+          <t>Солотвино, Закарпатська область, Україна, 90575</t>
+        </is>
+      </c>
+      <c r="D274" s="3" t="n">
+        <v>47.9557094</v>
+      </c>
+      <c r="E274" s="3" t="n">
+        <v>23.8775791</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>108660000011628</v>
+      </c>
+      <c r="B275" s="3" t="inlineStr">
+        <is>
+          <t>м.Хуст, вул. Карпатської Січі, буд.63 А</t>
+        </is>
+      </c>
+      <c r="C275" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Карпатської Січі, 63, Хуст, Закарпатська область, Україна, 90400</t>
+        </is>
+      </c>
+      <c r="D275" s="3" t="n">
+        <v>48.1727417</v>
+      </c>
+      <c r="E275" s="3" t="n">
+        <v>23.2947982</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>108660000011629</v>
+      </c>
+      <c r="B276" s="3" t="inlineStr">
+        <is>
+          <t>м.Мукачеве, вул. Миру, буд. 151 В</t>
+        </is>
+      </c>
+      <c r="C276" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Миру, 151, Мукачево, Закарпатська область, Україна, 89600</t>
+        </is>
+      </c>
+      <c r="D276" s="3" t="n">
+        <v>48.44195759999999</v>
+      </c>
+      <c r="E276" s="3" t="n">
+        <v>22.731837</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>108660000011630</v>
+      </c>
+      <c r="B277" s="3" t="inlineStr">
+        <is>
+          <t>м.Тячів, вул. Незалежності, буд. 205 А</t>
+        </is>
+      </c>
+      <c r="C277" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Незалежності, 205, Тячів, Закарпатська область, Україна, 90433</t>
+        </is>
+      </c>
+      <c r="D277" s="3" t="n">
+        <v>48.0113727</v>
+      </c>
+      <c r="E277" s="3" t="n">
+        <v>23.5894134</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>108660000011631</v>
+      </c>
+      <c r="B278" s="3" t="inlineStr">
+        <is>
+          <t>смт.Балабіне, вул. Урицкого (Мира), буд.240</t>
+        </is>
+      </c>
+      <c r="C278" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Урицького, Балабине, Запорізька область, Україна, 70435</t>
+        </is>
+      </c>
+      <c r="D278" s="3" t="n">
+        <v>47.7484398</v>
+      </c>
+      <c r="E278" s="3" t="n">
+        <v>35.2154309</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>108660000011632</v>
+      </c>
+      <c r="B279" s="3" t="inlineStr">
+        <is>
+          <t>с. Гора, вул.Бориспільська, буд.6-А</t>
+        </is>
+      </c>
+      <c r="C279" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Бориспільська, 6а, Київ, Україна, 02099</t>
+        </is>
+      </c>
+      <c r="D279" s="3" t="n">
+        <v>50.42823629999999</v>
+      </c>
+      <c r="E279" s="3" t="n">
+        <v>30.664907</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>108660000011633</v>
+      </c>
+      <c r="B280" s="3" t="inlineStr">
+        <is>
+          <t>м.Київ, вул.Вітовта Князя, буд.1</t>
+        </is>
+      </c>
+      <c r="C280" s="3" t="inlineStr">
+        <is>
+          <t>Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D280" s="3" t="n">
+        <v>50.4501</v>
+      </c>
+      <c r="E280" s="3" t="n">
+        <v>30.5234</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>108660000011634</v>
+      </c>
+      <c r="B281" s="3" t="inlineStr">
+        <is>
+          <t>м.Київ, вул. Бориса Гмирі, буд.16</t>
+        </is>
+      </c>
+      <c r="C281" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Бориса Гмирі, 16, Київ, Україна, 02000</t>
+        </is>
+      </c>
+      <c r="D281" s="3" t="n">
+        <v>50.3907412</v>
+      </c>
+      <c r="E281" s="3" t="n">
+        <v>30.6302016</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>108660000011635</v>
+      </c>
+      <c r="B282" s="3" t="inlineStr">
+        <is>
+          <t>м.Київ, вул. Острівна, буд.12-А</t>
+        </is>
+      </c>
+      <c r="C282" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Острівна, 12, Київ, Україна, 03045</t>
+        </is>
+      </c>
+      <c r="D282" s="3" t="n">
+        <v>50.3609586</v>
+      </c>
+      <c r="E282" s="3" t="n">
+        <v>30.5532949</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>108660000011636</v>
+      </c>
+      <c r="B283" s="3" t="inlineStr">
+        <is>
+          <t>м.Стрий, вул. Болехівська, буд.53</t>
+        </is>
+      </c>
+      <c r="C283" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Болехівська, 53, Стрий, Львівська область, Україна, 82400</t>
+        </is>
+      </c>
+      <c r="D283" s="3" t="n">
+        <v>49.24741119999999</v>
+      </c>
+      <c r="E283" s="3" t="n">
+        <v>23.8527233</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>108660000011637</v>
+      </c>
+      <c r="B284" s="3" t="inlineStr">
+        <is>
+          <t>м.Золочів, вул. Львівська, буд.5-Б</t>
+        </is>
+      </c>
+      <c r="C284" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Львівська, 5, Золочів, Львівська область, Україна, 80700</t>
+        </is>
+      </c>
+      <c r="D284" s="3" t="n">
+        <v>49.8089693</v>
+      </c>
+      <c r="E284" s="3" t="n">
+        <v>24.8939997</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>108660000011638</v>
+      </c>
+      <c r="B285" s="3" t="inlineStr">
+        <is>
+          <t>м.Львів, вул. Очеретяна, буд.31</t>
+        </is>
+      </c>
+      <c r="C285" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Очеретяна, 31, Львів, Львівська область, Україна, 79000</t>
+        </is>
+      </c>
+      <c r="D285" s="3" t="n">
+        <v>49.8763294</v>
+      </c>
+      <c r="E285" s="3" t="n">
+        <v>24.0437229</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>108660000011639</v>
+      </c>
+      <c r="B286" s="3" t="inlineStr">
+        <is>
+          <t>м.Жидачів, вул. Маркіяна Шашкевича, буд.34</t>
+        </is>
+      </c>
+      <c r="C286" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Маркіяна Шашкевича, 34, Жидачів, Львівська область, Україна, 81701</t>
+        </is>
+      </c>
+      <c r="D286" s="3" t="n">
+        <v>49.3853425</v>
+      </c>
+      <c r="E286" s="3" t="n">
+        <v>24.1349237</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>108660000011640</v>
+      </c>
+      <c r="B287" s="3" t="inlineStr">
+        <is>
+          <t>м.Львів, вул. Стрийська, буд.45</t>
+        </is>
+      </c>
+      <c r="C287" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Стрийська, 45, Львів, Львівська область, Україна, 79000</t>
+        </is>
+      </c>
+      <c r="D287" s="3" t="n">
+        <v>49.805936</v>
+      </c>
+      <c r="E287" s="3" t="n">
+        <v>24.0215987</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>108660000011641</v>
+      </c>
+      <c r="B288" s="3" t="inlineStr">
+        <is>
+          <t>м.Львів, просп. Червоної Калини, буд.62 А</t>
+        </is>
+      </c>
+      <c r="C288" s="3" t="inlineStr">
+        <is>
+          <t>проспект Червоної Калини, 62А, Львів, Львівська область, Україна, 79012</t>
+        </is>
+      </c>
+      <c r="D288" s="3" t="n">
+        <v>49.7918757</v>
+      </c>
+      <c r="E288" s="3" t="n">
+        <v>24.056252</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>108660000011642</v>
+      </c>
+      <c r="B289" s="3" t="inlineStr">
+        <is>
+          <t>м.Лубни, вул. Монастирська, буд.71 а</t>
+        </is>
+      </c>
+      <c r="C289" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Монастирська, 71а, Лубни, Полтавська область, Україна, 37500</t>
+        </is>
+      </c>
+      <c r="D289" s="3" t="n">
+        <v>50.021885</v>
+      </c>
+      <c r="E289" s="3" t="n">
+        <v>33.01095</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>108660000011643</v>
+      </c>
+      <c r="B290" s="3" t="inlineStr">
+        <is>
+          <t>м.Харків, просп. Героїв Харкова, буд. 268-А</t>
+        </is>
+      </c>
+      <c r="C290" s="3" t="inlineStr">
+        <is>
+          <t>проспект Героїв Харкова, 268б, Харків, Харківська область, Україна, 61000</t>
+        </is>
+      </c>
+      <c r="D290" s="3" t="n">
+        <v>49.951359</v>
+      </c>
+      <c r="E290" s="3" t="n">
+        <v>36.3781746</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>108660000011644</v>
+      </c>
+      <c r="B291" s="3" t="inlineStr">
+        <is>
+          <t>м.Черкаси, вул. Пацаєва, буд.8</t>
+        </is>
+      </c>
+      <c r="C291" s="3" t="inlineStr">
+        <is>
+          <t>вулиця Пацаєва, 8, Черкаси, Черкаська область, Україна, 18000</t>
+        </is>
+      </c>
+      <c r="D291" s="3" t="n">
+        <v>49.4084222</v>
+      </c>
+      <c r="E291" s="3" t="n">
+        <v>32.1031535</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>108660000011645</v>
+      </c>
+      <c r="B292" s="3" t="inlineStr">
+        <is>
+          <t>м.Черкаси, вул. Новопречистенська, буд.55</t>
+        </is>
+      </c>
+      <c r="C292" s="3" t="inlineStr">
+        <is>
+          <t>Паркувальний майданчик, вулиця Новопречистенська, 55, Черкаси, Черкаська область, Україна, 18000</t>
+        </is>
+      </c>
+      <c r="D292" s="3" t="n">
+        <v>49.4248083</v>
+      </c>
+      <c r="E292" s="3" t="n">
+        <v>32.083654</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>108660000011646</v>
+      </c>
+      <c r="B293" s="3" t="inlineStr">
+        <is>
+          <t>смт.Ярмолинці, вул.Шевченка, буд.2 А</t>
+        </is>
+      </c>
+      <c r="C293" s="3" t="inlineStr">
+        <is>
+          <t>Ярмолинці, Хмельницька область, Україна, 32100</t>
+        </is>
+      </c>
+      <c r="D293" s="3" t="n">
+        <v>49.189578</v>
+      </c>
+      <c r="E293" s="3" t="n">
+        <v>26.8447254</v>
       </c>
     </row>
   </sheetData>
